--- a/Куделин/Солнечная энергетика/Solar NorthAmerica Canada.xlsx
+++ b/Куделин/Солнечная энергетика/Solar NorthAmerica Canada.xlsx
@@ -1159,22 +1159,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>407.24185601097645</c:v>
+                  <c:v>0.28983629620784696</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>498.69866348768278</c:v>
+                  <c:v>0.3705582869324488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>605.4286937458935</c:v>
+                  <c:v>0.47336369645547316</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>726.65274227138821</c:v>
+                  <c:v>0.60400719622272903</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>859.81521927601398</c:v>
+                  <c:v>0.77036506483264655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1007.1772603036646</c:v>
+                  <c:v>0.98228296454005526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,22 +1246,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>26.209847948481048</c:v>
+                  <c:v>4.440812166242349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.358934642440921</c:v>
+                  <c:v>4.1563019330289572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.15391198614585</c:v>
+                  <c:v>4.4639850704260668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.663774519049866</c:v>
+                  <c:v>4.8510098373091433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.679736802454492</c:v>
+                  <c:v>5.1821452557607186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.580838193112612</c:v>
+                  <c:v>6.203366004536857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,11 +1282,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627535024"/>
-        <c:axId val="1627527408"/>
+        <c:axId val="-85358896"/>
+        <c:axId val="-85347472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627535024"/>
+        <c:axId val="-85358896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1329,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627527408"/>
+        <c:crossAx val="-85347472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1337,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627527408"/>
+        <c:axId val="-85347472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1389,7 +1389,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627535024"/>
+        <c:crossAx val="-85358896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,19 +1754,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1251.6137846415666</c:v>
+                  <c:v>4.0372228586625711</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1412.0898415428496</c:v>
+                  <c:v>5.3530232089557046</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1532.6736291582706</c:v>
+                  <c:v>6.904821127959349</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1617.3851846686102</c:v>
+                  <c:v>9.1230921956530739</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1793.9854146141176</c:v>
+                  <c:v>12.046113494524768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,19 +1827,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1260.4175045468019</c:v>
+                  <c:v>4.0655933223506819</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1433.8076252737781</c:v>
+                  <c:v>5.4352932395342446</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1573.2255180065999</c:v>
+                  <c:v>7.087409534573494</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1682.296047739258</c:v>
+                  <c:v>9.4890778654290884</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1894.7504781710775</c:v>
+                  <c:v>12.722508536999184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,11 +1860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627524144"/>
-        <c:axId val="1627533392"/>
+        <c:axId val="-85365968"/>
+        <c:axId val="-85353456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627524144"/>
+        <c:axId val="-85365968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +1907,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627533392"/>
+        <c:crossAx val="-85353456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1915,7 +1915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627533392"/>
+        <c:axId val="-85353456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1967,7 +1967,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627524144"/>
+        <c:crossAx val="-85365968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2335,19 +2335,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1282.6618968461698</c:v>
+                  <c:v>4.1372770799879541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1480.5707249919758</c:v>
+                  <c:v>5.6124384626117063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1653.0996054242305</c:v>
+                  <c:v>7.4470495603659064</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1803.0312939731668</c:v>
+                  <c:v>10.169817080225794</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2075.1479637780171</c:v>
+                  <c:v>13.933443762285961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,19 +2408,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1283.0597664844984</c:v>
+                  <c:v>4.1385592364227684</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1481.4017619135657</c:v>
+                  <c:v>5.6155865477845843</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1654.5280351276656</c:v>
+                  <c:v>7.4534811893459016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1805.2158949382679</c:v>
+                  <c:v>10.182134473795738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2078.4600345182375</c:v>
+                  <c:v>13.95567635114096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,11 +2441,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627533936"/>
-        <c:axId val="1627545904"/>
+        <c:axId val="-85352368"/>
+        <c:axId val="-85362160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627533936"/>
+        <c:axId val="-85352368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2488,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627545904"/>
+        <c:crossAx val="-85362160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2496,7 +2496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627545904"/>
+        <c:axId val="-85362160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -2548,7 +2548,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627533936"/>
+        <c:crossAx val="-85352368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2840,88 +2840,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>13381.884159468407</c:v>
+                  <c:v>0.52331367847850285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13797.191627218766</c:v>
+                  <c:v>0.55323595442710227</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14128.649634452517</c:v>
+                  <c:v>0.5456430955342495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14511.019560935903</c:v>
+                  <c:v>0.54176460922418679</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14925.882475218497</c:v>
+                  <c:v>0.53860522751136797</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15563.882921480617</c:v>
+                  <c:v>0.54193370675483377</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15799.596068168668</c:v>
+                  <c:v>0.60193000286135767</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16357.739666156878</c:v>
+                  <c:v>0.63233443976379211</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16935.121568843122</c:v>
+                  <c:v>0.64144379203756041</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17736.914638193048</c:v>
+                  <c:v>0.7213955956735002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18464.078545158507</c:v>
+                  <c:v>0.77490063361437367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19166.692215718551</c:v>
+                  <c:v>0.8554321290788035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20058.735773087752</c:v>
+                  <c:v>1.13041049862401</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20435.969784417954</c:v>
+                  <c:v>1.687062563699731</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20278.499739432627</c:v>
+                  <c:v>2.2119603942444148</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21589.613748314347</c:v>
+                  <c:v>3.299591976527668</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22277.930768954324</c:v>
+                  <c:v>5.3516192794852833</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22832.897362521064</c:v>
+                  <c:v>9.9868208262476745</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23467.918512807806</c:v>
+                  <c:v>17.644685379587791</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24074.119579745573</c:v>
+                  <c:v>31.557362626262631</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24308.615009446032</c:v>
+                  <c:v>42.523411641575898</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24951.573195105961</c:v>
+                  <c:v>59.704800353535347</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25699.435183038651</c:v>
+                  <c:v>82.817820252525266</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26745.772154130489</c:v>
+                  <c:v>101.3167605050505</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27099.499905623976</c:v>
+                  <c:v>122.0178553535354</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26986.49569151612</c:v>
+                  <c:v>152.1574391919192</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28520.172901436086</c:v>
+                  <c:v>191.44436454545459</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29165.129834866351</c:v>
+                  <c:v>231.45889994425389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,11 +3150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627550800"/>
-        <c:axId val="1627550256"/>
+        <c:axId val="-85357808"/>
+        <c:axId val="-85348560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627550800"/>
+        <c:axId val="-85357808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3197,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627550256"/>
+        <c:crossAx val="-85348560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3205,7 +3205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627550256"/>
+        <c:axId val="-85348560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +3256,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627550800"/>
+        <c:crossAx val="-85357808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4829,11 +4829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627551344"/>
-        <c:axId val="1627522512"/>
+        <c:axId val="-85356720"/>
+        <c:axId val="-85361616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627551344"/>
+        <c:axId val="-85356720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,7 +4932,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627522512"/>
+        <c:crossAx val="-85361616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4940,7 +4940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627522512"/>
+        <c:axId val="-85361616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,7 +5051,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627551344"/>
+        <c:crossAx val="-85356720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6641,11 +6641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627551888"/>
-        <c:axId val="1627528496"/>
+        <c:axId val="-85352912"/>
+        <c:axId val="-85351824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627551888"/>
+        <c:axId val="-85352912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6744,7 +6744,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627528496"/>
+        <c:crossAx val="-85351824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6752,7 +6752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627528496"/>
+        <c:axId val="-85351824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6926,7 +6926,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627551888"/>
+        <c:crossAx val="-85352912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8516,11 +8516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627534480"/>
-        <c:axId val="1627523056"/>
+        <c:axId val="-85351280"/>
+        <c:axId val="-85350736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627534480"/>
+        <c:axId val="-85351280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8618,7 +8618,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627523056"/>
+        <c:crossAx val="-85350736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8626,7 +8626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627523056"/>
+        <c:axId val="-85350736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8737,7 +8737,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627534480"/>
+        <c:crossAx val="-85351280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12746,7 +12746,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12782,7 +12782,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12818,7 +12818,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12859,7 +12859,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12900,7 +12900,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12938,7 +12938,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12976,7 +12976,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13268,7 +13268,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:AF3"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13475,88 +13475,88 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>13381.884159468407</v>
+        <v>0.52331367847850285</v>
       </c>
       <c r="F4" s="1">
-        <v>13797.191627218766</v>
+        <v>0.55323595442710227</v>
       </c>
       <c r="G4" s="1">
-        <v>14128.649634452517</v>
+        <v>0.5456430955342495</v>
       </c>
       <c r="H4" s="1">
-        <v>14511.019560935903</v>
+        <v>0.54176460922418679</v>
       </c>
       <c r="I4" s="1">
-        <v>14925.882475218497</v>
+        <v>0.53860522751136797</v>
       </c>
       <c r="J4" s="1">
-        <v>15563.882921480617</v>
+        <v>0.54193370675483377</v>
       </c>
       <c r="K4" s="1">
-        <v>15799.596068168668</v>
+        <v>0.60193000286135767</v>
       </c>
       <c r="L4" s="1">
-        <v>16357.739666156878</v>
+        <v>0.63233443976379211</v>
       </c>
       <c r="M4" s="1">
-        <v>16935.121568843122</v>
+        <v>0.64144379203756041</v>
       </c>
       <c r="N4" s="1">
-        <v>17736.914638193048</v>
+        <v>0.7213955956735002</v>
       </c>
       <c r="O4" s="1">
-        <v>18464.078545158507</v>
+        <v>0.77490063361437367</v>
       </c>
       <c r="P4" s="1">
-        <v>19166.692215718551</v>
+        <v>0.8554321290788035</v>
       </c>
       <c r="Q4" s="1">
-        <v>20058.735773087752</v>
+        <v>1.13041049862401</v>
       </c>
       <c r="R4" s="1">
-        <v>20435.969784417954</v>
+        <v>1.687062563699731</v>
       </c>
       <c r="S4" s="1">
-        <v>20278.499739432627</v>
+        <v>2.2119603942444148</v>
       </c>
       <c r="T4" s="1">
-        <v>21589.613748314347</v>
+        <v>3.299591976527668</v>
       </c>
       <c r="U4" s="1">
-        <v>22277.930768954324</v>
+        <v>5.3516192794852833</v>
       </c>
       <c r="V4" s="1">
-        <v>22832.897362521064</v>
+        <v>9.9868208262476745</v>
       </c>
       <c r="W4" s="1">
-        <v>23467.918512807806</v>
+        <v>17.644685379587791</v>
       </c>
       <c r="X4" s="1">
-        <v>24074.119579745573</v>
+        <v>31.557362626262631</v>
       </c>
       <c r="Y4" s="1">
-        <v>24308.615009446032</v>
+        <v>42.523411641575898</v>
       </c>
       <c r="Z4" s="1">
-        <v>24951.573195105961</v>
+        <v>59.704800353535347</v>
       </c>
       <c r="AA4" s="1">
-        <v>25699.435183038651</v>
+        <v>82.817820252525266</v>
       </c>
       <c r="AB4" s="38">
-        <v>26745.772154130489</v>
+        <v>101.3167605050505</v>
       </c>
       <c r="AC4" s="1">
-        <v>27099.499905623976</v>
+        <v>122.0178553535354</v>
       </c>
       <c r="AD4" s="1">
-        <v>26986.49569151612</v>
+        <v>152.1574391919192</v>
       </c>
       <c r="AE4" s="1">
-        <v>28520.172901436086</v>
+        <v>191.44436454545459</v>
       </c>
       <c r="AF4" s="39">
-        <v>29165.129834866351</v>
+        <v>231.45889994425389</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -14419,111 +14419,111 @@
       </c>
       <c r="F16">
         <f>$A16*($C16*E$4)+($B16-$A16)*(E$3)-($B16/($C16*E$4))*(E3^2)</f>
-        <v>0.54604438174500824</v>
+        <v>9.9301949921876869E-4</v>
       </c>
       <c r="G16">
         <f>$A16*($C16*F$4)+($B16-$A16)*(F$17)-($B16/($C16*F$4))*(F17^2)</f>
-        <v>0.71554630806240704</v>
+        <v>1.2208226064229482E-3</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:AF16" si="6">$A16*($C16*G$4)+($B16-$A16)*(G$17)-($B16/($C16*G$4))*(G17^2)</f>
-        <v>0.92877191789753255</v>
+        <v>1.471156947060564E-3</v>
       </c>
       <c r="I16">
         <f t="shared" si="6"/>
-        <v>1.2032249862044362</v>
+        <v>1.7465367666142254E-3</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
-        <v>1.5549248770179498</v>
+        <v>2.034520036468904E-3</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>2.0127319301332438</v>
+        <v>2.3262685997279013E-3</v>
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>2.5796389018775376</v>
+        <v>2.7142895370952094E-3</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
-        <v>3.3145289618758671</v>
+        <v>3.0606894228060785E-3</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>4.2495065670460717</v>
+        <v>3.3185921749990695E-3</v>
       </c>
       <c r="O16">
         <f t="shared" si="6"/>
-        <v>5.4457905753823077</v>
+        <v>3.7818273853963934E-3</v>
       </c>
       <c r="P16">
         <f t="shared" si="6"/>
-        <v>6.957842579898033</v>
+        <v>4.1478123269090622E-3</v>
       </c>
       <c r="Q16">
         <f t="shared" si="6"/>
-        <v>8.8667828514594778</v>
+        <v>4.6137477645553484E-3</v>
       </c>
       <c r="R16">
         <f t="shared" si="6"/>
-        <v>11.280460139483097</v>
+        <v>5.9083050660440973E-3</v>
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>14.27805534860687</v>
+        <v>7.9295040163105852E-3</v>
       </c>
       <c r="T16">
         <f t="shared" si="6"/>
-        <v>17.969584205575241</v>
+        <v>9.8584776589731894E-3</v>
       </c>
       <c r="U16">
         <f t="shared" si="6"/>
-        <v>22.650460131558827</v>
+        <v>1.2791672560708922E-2</v>
       </c>
       <c r="V16">
         <f t="shared" si="6"/>
-        <v>28.35729525529004</v>
+        <v>1.67845554864588E-2</v>
       </c>
       <c r="W16">
         <f t="shared" si="6"/>
-        <v>35.27991219969369</v>
+        <v>2.230994953984787E-2</v>
       </c>
       <c r="X16">
         <f t="shared" si="6"/>
-        <v>43.600823173297194</v>
+        <v>2.9181370546976663E-2</v>
       </c>
       <c r="Y16">
         <f t="shared" si="6"/>
-        <v>53.425310449485771</v>
+        <v>3.8179462510737311E-2</v>
       </c>
       <c r="Z16">
         <f t="shared" si="6"/>
-        <v>64.627651756736086</v>
+        <v>4.8844618886866524E-2</v>
       </c>
       <c r="AA16">
         <f t="shared" si="6"/>
-        <v>77.39312640764976</v>
+        <v>6.2776991867648513E-2</v>
       </c>
       <c r="AB16" s="43">
         <f t="shared" si="6"/>
-        <v>91.456807476706302</v>
+        <v>8.072199072460183E-2</v>
       </c>
       <c r="AC16" s="44">
         <f t="shared" si="6"/>
-        <v>106.7300302582107</v>
+        <v>0.10280540952302436</v>
       </c>
       <c r="AD16" s="44">
         <f t="shared" si="6"/>
-        <v>121.22404852549477</v>
+        <v>0.13064349976725587</v>
       </c>
       <c r="AE16" s="44">
         <f t="shared" si="6"/>
-        <v>133.16247700462571</v>
+        <v>0.16635786860991758</v>
       </c>
       <c r="AF16" s="45">
         <f t="shared" si="6"/>
-        <v>147.36204102765066</v>
+        <v>0.21191789970740874</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -14539,111 +14539,111 @@
       </c>
       <c r="F17" s="6">
         <f>E$3+F16</f>
-        <v>0.54988648674500828</v>
+        <v>4.8351244992187684E-3</v>
       </c>
       <c r="G17" s="6">
         <f>F17+G16</f>
-        <v>1.2654327948074153</v>
+        <v>6.0559471056417166E-3</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ref="H17" si="7">G17+H16</f>
-        <v>2.194204712704948</v>
+        <v>7.5271040527022806E-3</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ref="I17" si="8">H17+I16</f>
-        <v>3.3974296989093844</v>
+        <v>9.2736408193165067E-3</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" ref="J17" si="9">I17+J16</f>
-        <v>4.952354575927334</v>
+        <v>1.1308160855785411E-2</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ref="K17" si="10">J17+K16</f>
-        <v>6.9650865060605778</v>
+        <v>1.3634429455513311E-2</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ref="L17" si="11">K17+L16</f>
-        <v>9.544725407938115</v>
+        <v>1.6348718992608521E-2</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" ref="M17" si="12">L17+M16</f>
-        <v>12.859254369813982</v>
+        <v>1.9409408415414602E-2</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" ref="N17" si="13">M17+N16</f>
-        <v>17.108760936860055</v>
+        <v>2.2728000590413671E-2</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" ref="O17" si="14">N17+O16</f>
-        <v>22.554551512242362</v>
+        <v>2.6509827975810064E-2</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" ref="P17" si="15">O17+P16</f>
-        <v>29.512394092140397</v>
+        <v>3.0657640302719127E-2</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" ref="Q17" si="16">P17+Q16</f>
-        <v>38.379176943599873</v>
+        <v>3.5271388067274478E-2</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" ref="R17" si="17">Q17+R16</f>
-        <v>49.65963708308297</v>
+        <v>4.1179693133318575E-2</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" ref="S17" si="18">R17+S16</f>
-        <v>63.93769243168984</v>
+        <v>4.9109197149629163E-2</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" ref="T17" si="19">S17+T16</f>
-        <v>81.907276637265085</v>
+        <v>5.8967674808602349E-2</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" ref="U17" si="20">T17+U16</f>
-        <v>104.55773676882391</v>
+        <v>7.1759347369311277E-2</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" ref="V17" si="21">U17+V16</f>
-        <v>132.91503202411394</v>
+        <v>8.8543902855770074E-2</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" ref="W17" si="22">V17+W16</f>
-        <v>168.19494422380762</v>
+        <v>0.11085385239561794</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" ref="X17" si="23">W17+X16</f>
-        <v>211.79576739710481</v>
+        <v>0.1400352229425946</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" ref="Y17" si="24">X17+Y16</f>
-        <v>265.22107784659056</v>
+        <v>0.17821468545333191</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" ref="Z17" si="25">Y17+Z16</f>
-        <v>329.84872960332666</v>
+        <v>0.22705930434019844</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" ref="AA17" si="26">Z17+AA16</f>
-        <v>407.24185601097645</v>
+        <v>0.28983629620784696</v>
       </c>
       <c r="AB17" s="49">
         <f t="shared" ref="AB17" si="27">AA17+AB16</f>
-        <v>498.69866348768278</v>
+        <v>0.3705582869324488</v>
       </c>
       <c r="AC17" s="50">
         <f t="shared" ref="AC17" si="28">AB17+AC16</f>
-        <v>605.4286937458935</v>
+        <v>0.47336369645547316</v>
       </c>
       <c r="AD17" s="50">
         <f t="shared" ref="AD17" si="29">AC17+AD16</f>
-        <v>726.65274227138821</v>
+        <v>0.60400719622272903</v>
       </c>
       <c r="AE17" s="50">
         <f t="shared" ref="AE17" si="30">AD17+AE16</f>
-        <v>859.81521927601398</v>
+        <v>0.77036506483264655</v>
       </c>
       <c r="AF17" s="51">
         <f t="shared" ref="AF17" si="31">AE17+AF16</f>
-        <v>1007.1772603036646</v>
+        <v>0.98228296454005526</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -14652,126 +14652,126 @@
       </c>
       <c r="B18" s="17">
         <f>AF17-$AF$3</f>
-        <v>1001.1636279804324</v>
+        <v>-5.0313493586922684</v>
       </c>
       <c r="C18" s="18">
         <f>((AF17-AA17)-($AF$3-$AA$3))</f>
-        <v>597.49551035329421</v>
+        <v>-1.7474472710617317</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="5">
         <f>SUM(F18:AA18)</f>
-        <v>454607.52156910754</v>
+        <v>39.413064162157077</v>
       </c>
       <c r="F18">
         <f>(F3-F17)^2</f>
-        <v>0.29592702379063573</v>
+        <v>1.1227786518118549E-6</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:AF18" si="32">(G3-G17)^2</f>
-        <v>1.5837855694866421</v>
+        <v>7.9463121089852144E-7</v>
       </c>
       <c r="H18">
         <f t="shared" si="32"/>
-        <v>4.7702904062014575</v>
+        <v>6.6469035575312827E-6</v>
       </c>
       <c r="I18">
         <f>(I3-I17)^2</f>
-        <v>11.452583177323046</v>
+        <v>1.5916246495070406E-5</v>
       </c>
       <c r="J18">
         <f t="shared" si="32"/>
-        <v>24.363439746394842</v>
+        <v>2.614166231097722E-5</v>
       </c>
       <c r="K18">
         <f t="shared" si="32"/>
-        <v>48.24007524784988</v>
+        <v>3.5337293216881104E-5</v>
       </c>
       <c r="L18">
         <f t="shared" si="32"/>
-        <v>90.668266247851562</v>
+        <v>4.0808116902432382E-5</v>
       </c>
       <c r="M18">
         <f t="shared" si="32"/>
-        <v>164.77483102957189</v>
+        <v>1.142484122132049E-5</v>
       </c>
       <c r="N18">
         <f t="shared" si="32"/>
-        <v>292.22185431505022</v>
+        <v>7.1653561862553391E-5</v>
       </c>
       <c r="O18">
         <f t="shared" si="32"/>
-        <v>507.94122816697802</v>
+        <v>9.0436828129499721E-5</v>
       </c>
       <c r="P18">
         <f t="shared" si="32"/>
-        <v>869.74232549793351</v>
+        <v>9.3270016216704771E-5</v>
       </c>
       <c r="Q18">
         <f t="shared" si="32"/>
-        <v>1470.9661816670807</v>
+        <v>8.5958636693999612E-5</v>
       </c>
       <c r="R18">
         <f t="shared" si="32"/>
-        <v>2462.6046056276937</v>
+        <v>3.8188607221984704E-5</v>
       </c>
       <c r="S18">
         <f t="shared" si="32"/>
-        <v>4074.1019775392597</v>
+        <v>3.5869082660619873E-3</v>
       </c>
       <c r="T18">
         <f t="shared" si="32"/>
-        <v>6667.0035556052881</v>
+        <v>3.8646794856578306E-2</v>
       </c>
       <c r="U18">
         <f t="shared" si="32"/>
-        <v>10813.092691795406</v>
+        <v>0.24995580609911386</v>
       </c>
       <c r="V18">
         <f t="shared" si="32"/>
-        <v>17433.036559046846</v>
+        <v>0.62768092713377843</v>
       </c>
       <c r="W18">
         <f t="shared" si="32"/>
-        <v>27787.541188261719</v>
+        <v>1.9269216838544003</v>
       </c>
       <c r="X18">
         <f t="shared" si="32"/>
-        <v>43963.843139710843</v>
+        <v>3.9210565446327075</v>
       </c>
       <c r="Y18">
         <f t="shared" si="32"/>
-        <v>68814.996556058133</v>
+        <v>7.3806590018385343</v>
       </c>
       <c r="Z18">
         <f t="shared" si="32"/>
-        <v>106156.33131872982</v>
+        <v>14.480025874208016</v>
       </c>
       <c r="AA18">
         <f t="shared" si="32"/>
-        <v>162947.94918863699</v>
+        <v>10.784012921144198</v>
       </c>
       <c r="AB18" s="43">
         <f t="shared" si="32"/>
-        <v>244927.68651691673</v>
+        <v>11.740295150833441</v>
       </c>
       <c r="AC18" s="44">
         <f t="shared" si="32"/>
-        <v>361620.49443910248</v>
+        <v>13.006368240068179</v>
       </c>
       <c r="AD18" s="44">
         <f t="shared" si="32"/>
-        <v>521821.79358196136</v>
+        <v>13.51590118297166</v>
       </c>
       <c r="AE18" s="44">
         <f t="shared" si="32"/>
-        <v>730424.21753976331</v>
+        <v>19.327112519225768</v>
       </c>
       <c r="AF18" s="45">
         <f t="shared" si="32"/>
-        <v>1002328.6099909416</v>
+        <v>25.3144763692131</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14780,126 +14780,126 @@
       </c>
       <c r="B19" s="20">
         <f>(B18/$AF$3)*100</f>
-        <v>16648.234780045674</v>
+        <v>-83.665729599975293</v>
       </c>
       <c r="C19" s="21">
         <f>((C18)/($AF$3-$AA$3))*100</f>
-        <v>24488.585372760495</v>
+        <v>-71.619804568053908</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="5">
         <f>SUM(F19:AA19)</f>
-        <v>1948.3947272568719</v>
+        <v>14.795329024220715</v>
       </c>
       <c r="F19">
         <f>SQRT(F18)</f>
-        <v>0.5439917497450083</v>
+        <v>1.0596125007812313E-3</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="33">SQRT(G18)</f>
-        <v>1.2584854268074153</v>
+        <v>8.9142089435828315E-4</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19" si="34">SQRT(H18)</f>
-        <v>2.1840994497049482</v>
+        <v>2.5781589472977191E-3</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="35">SQRT(I18)</f>
-        <v>3.3841665410146478</v>
+        <v>3.9895170754203329E-3</v>
       </c>
       <c r="J19">
         <f t="shared" ref="J19" si="36">SQRT(J18)</f>
-        <v>4.9359335232957546</v>
+        <v>5.1128917757935401E-3</v>
       </c>
       <c r="K19">
         <f t="shared" ref="K19" si="37">SQRT(K18)</f>
-        <v>6.9455075586921566</v>
+        <v>5.9445179129077493E-3</v>
       </c>
       <c r="L19">
         <f t="shared" ref="L19" si="38">SQRT(L18)</f>
-        <v>9.5219885658328511</v>
+        <v>6.3881231126546381E-3</v>
       </c>
       <c r="M19">
         <f t="shared" ref="M19" si="39">SQRT(M18)</f>
-        <v>12.836464896129771</v>
+        <v>3.380065268795928E-3</v>
       </c>
       <c r="N19">
         <f t="shared" ref="N19" si="40">SQRT(N18)</f>
-        <v>17.094497778965319</v>
+        <v>8.4648426956768306E-3</v>
       </c>
       <c r="O19">
         <f t="shared" ref="O19" si="41">SQRT(O18)</f>
-        <v>22.537551512242363</v>
+        <v>9.5098279758100632E-3</v>
       </c>
       <c r="P19">
         <f t="shared" ref="P19" si="42">SQRT(P18)</f>
-        <v>29.491394092140396</v>
+        <v>9.6576403027191261E-3</v>
       </c>
       <c r="Q19">
         <f t="shared" ref="Q19" si="43">SQRT(Q18)</f>
-        <v>38.35317694359987</v>
+        <v>9.2713880672744796E-3</v>
       </c>
       <c r="R19">
         <f t="shared" ref="R19" si="44">SQRT(R18)</f>
-        <v>49.624637083082973</v>
+        <v>6.1796931333185715E-3</v>
       </c>
       <c r="S19">
         <f t="shared" ref="S19" si="45">SQRT(S18)</f>
-        <v>63.828692431689838</v>
+        <v>5.9890802850370836E-2</v>
       </c>
       <c r="T19">
         <f t="shared" ref="T19" si="46">SQRT(T18)</f>
-        <v>81.651721081709525</v>
+        <v>0.19658788074695324</v>
       </c>
       <c r="U19">
         <f t="shared" ref="U19" si="47">SQRT(U18)</f>
-        <v>103.98602161730877</v>
+        <v>0.49995580414584034</v>
       </c>
       <c r="V19">
         <f t="shared" ref="V19" si="48">SQRT(V18)</f>
-        <v>132.03422495340686</v>
+        <v>0.7922631678513008</v>
       </c>
       <c r="W19">
         <f t="shared" ref="W19" si="49">SQRT(W18)</f>
-        <v>166.69595432481773</v>
+        <v>1.3881360465942811</v>
       </c>
       <c r="X19">
         <f t="shared" ref="X19" si="50">SQRT(X18)</f>
-        <v>209.67556638700381</v>
+        <v>1.9801657871584155</v>
       </c>
       <c r="Y19">
         <f t="shared" ref="Y19" si="51">SQRT(Y18)</f>
-        <v>262.32612633143907</v>
+        <v>2.7167368296981831</v>
       </c>
       <c r="Z19">
         <f t="shared" ref="Z19" si="52">SQRT(Z18)</f>
-        <v>325.81640738110445</v>
+        <v>3.8052629178820241</v>
       </c>
       <c r="AA19">
         <f t="shared" ref="AA19" si="53">SQRT(AA18)</f>
-        <v>403.66811762713809</v>
+        <v>3.2839020876305369</v>
       </c>
       <c r="AB19" s="43">
         <f t="shared" ref="AB19" si="54">SQRT(AB18)</f>
-        <v>494.90169379071307</v>
+        <v>3.426411410037248</v>
       </c>
       <c r="AC19" s="44">
         <f t="shared" ref="AC19" si="55">SQRT(AC18)</f>
-        <v>601.34889576609555</v>
+        <v>3.6064342833425065</v>
       </c>
       <c r="AD19" s="44">
         <f t="shared" ref="AD19" si="56">SQRT(AD18)</f>
-        <v>722.3723372208832</v>
+        <v>3.6763978542823219</v>
       </c>
       <c r="AE19" s="44">
         <f t="shared" ref="AE19" si="57">SQRT(AE18)</f>
-        <v>854.64859301338777</v>
+        <v>4.396261197793617</v>
       </c>
       <c r="AF19" s="45">
         <f t="shared" ref="AF19" si="58">SQRT(AF18)</f>
-        <v>1001.1636279804324</v>
+        <v>5.0313493586922684</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15044,111 +15044,111 @@
       </c>
       <c r="F24">
         <f>$A24*($C24/($C24+E5))*E$4+($B24-$A24)*(E$3)-($B24/(($C24/($C24+E5))*E$4)*(E$3^2))</f>
-        <v>3.7701210413925508</v>
+        <v>8.4178905831291462E-4</v>
       </c>
       <c r="G24">
         <f>$A24*($C24/($C24+F5))*F$4+($B24-$A24)*(F$25)-($B24/(($C24/($C24+F5))*F$4)*(F$25^2))</f>
-        <v>4.8933313065045718</v>
+        <v>9.95790790818418E-4</v>
       </c>
       <c r="H24">
         <f t="shared" ref="H24:AF24" si="60">$A24*($C24/($C24+G5))*G$4+($B24-$A24)*(G$25)-($B24/(($C24/($C24+G5))*G$4)*(G$25^2))</f>
-        <v>5.4470916986243019</v>
+        <v>1.2895440603442586E-3</v>
       </c>
       <c r="I24">
         <f t="shared" si="60"/>
-        <v>5.9152037129712989</v>
+        <v>1.4542138414086656E-3</v>
       </c>
       <c r="J24">
         <f t="shared" si="60"/>
-        <v>6.3972038425998097</v>
+        <v>1.7432265046499705E-3</v>
       </c>
       <c r="K24">
         <f t="shared" si="60"/>
-        <v>6.9847941113819791</v>
+        <v>1.9460509843794681E-3</v>
       </c>
       <c r="L24">
         <f t="shared" si="60"/>
-        <v>7.4721985590721802</v>
+        <v>2.2793509244972282E-3</v>
       </c>
       <c r="M24">
         <f t="shared" si="60"/>
-        <v>8.0831036283728146</v>
+        <v>2.5106482028270098E-3</v>
       </c>
       <c r="N24">
         <f t="shared" si="60"/>
-        <v>8.7565213464067408</v>
+        <v>2.6316625473331869E-3</v>
       </c>
       <c r="O24">
         <f t="shared" si="60"/>
-        <v>9.569776140810669</v>
+        <v>3.1340652143504533E-3</v>
       </c>
       <c r="P24">
         <f t="shared" si="60"/>
-        <v>10.415550586242581</v>
+        <v>2.979975169444737E-3</v>
       </c>
       <c r="Q24">
         <f t="shared" si="60"/>
-        <v>11.295251445156117</v>
+        <v>3.4278094848614882E-3</v>
       </c>
       <c r="R24">
         <f t="shared" si="60"/>
-        <v>12.311764220894373</v>
+        <v>4.4258995639962391E-3</v>
       </c>
       <c r="S24">
         <f t="shared" si="60"/>
-        <v>13.135572162666458</v>
+        <v>6.0207287497016926E-3</v>
       </c>
       <c r="T24">
         <f t="shared" si="60"/>
-        <v>13.654920022606344</v>
+        <v>8.1529905341644685E-3</v>
       </c>
       <c r="U24">
         <f t="shared" si="60"/>
-        <v>14.941887534706739</v>
+        <v>1.7410474091810204E-2</v>
       </c>
       <c r="V24">
         <f t="shared" si="60"/>
-        <v>16.106427434651202</v>
+        <v>3.0922403132701237E-2</v>
       </c>
       <c r="W24">
         <f t="shared" si="60"/>
-        <v>17.234833126724745</v>
+        <v>5.7967742646680073E-2</v>
       </c>
       <c r="X24">
         <f t="shared" si="60"/>
-        <v>18.431591937457625</v>
+        <v>0.10979967079315324</v>
       </c>
       <c r="Y24">
         <f t="shared" si="60"/>
-        <v>19.719531775036131</v>
+        <v>0.20266476578483389</v>
       </c>
       <c r="Z24">
         <f t="shared" si="60"/>
-        <v>20.80742095156759</v>
+        <v>0.28316226125476979</v>
       </c>
       <c r="AA24">
         <f t="shared" si="60"/>
-        <v>22.177525726258825</v>
+        <v>0.40848994402012639</v>
       </c>
       <c r="AB24" s="43">
         <f t="shared" si="60"/>
-        <v>23.785196258602539</v>
+        <v>0.58256354919057318</v>
       </c>
       <c r="AC24" s="44">
         <f t="shared" si="60"/>
-        <v>25.356942289176153</v>
+        <v>0.66701537345636996</v>
       </c>
       <c r="AD24" s="44">
         <f t="shared" si="60"/>
-        <v>26.583976539251886</v>
+        <v>0.77121185751116383</v>
       </c>
       <c r="AE24" s="44">
         <f t="shared" si="60"/>
-        <v>27.399331751949443</v>
+        <v>0.90174020525566811</v>
       </c>
       <c r="AF24" s="45">
         <f t="shared" si="60"/>
-        <v>29.414211930486349</v>
+        <v>1.0367397419105935</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -15164,111 +15164,111 @@
       </c>
       <c r="F25" s="6">
         <f>E$3+F24</f>
-        <v>3.7739631463925507</v>
+        <v>4.6838940583129145E-3</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" ref="G25:AF25" si="61">F$3+G24</f>
-        <v>4.899226043504572</v>
+        <v>6.8905277908184182E-3</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="61"/>
-        <v>5.4540390666243015</v>
+        <v>8.2369120603442581E-3</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="61"/>
-        <v>5.9253089759712987</v>
+        <v>1.1559476841408666E-2</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="61"/>
-        <v>6.4104670004945463</v>
+        <v>1.5006384399386809E-2</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="61"/>
-        <v>7.0012151640135585</v>
+        <v>1.8367103615958419E-2</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="61"/>
-        <v>7.4917775064406014</v>
+        <v>2.1858298292918289E-2</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="61"/>
-        <v>8.1058404704780784</v>
+        <v>2.5247490308090169E-2</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="61"/>
-        <v>8.7793108200909522</v>
+        <v>2.5421136231543715E-2</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="61"/>
-        <v>9.5840392987054059</v>
+        <v>1.7397223109087295E-2</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="61"/>
-        <v>10.432550586242581</v>
+        <v>1.997997516944474E-2</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="61"/>
-        <v>11.316251445156118</v>
+        <v>2.4427809484861489E-2</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="61"/>
-        <v>12.337764220894373</v>
+        <v>3.0425899563996238E-2</v>
       </c>
       <c r="S25" s="6">
         <f t="shared" si="61"/>
-        <v>13.170572162666458</v>
+        <v>4.1020728749701696E-2</v>
       </c>
       <c r="T25" s="6">
         <f t="shared" si="61"/>
-        <v>13.763920022606344</v>
+        <v>0.11715299053416448</v>
       </c>
       <c r="U25" s="6">
         <f t="shared" si="61"/>
-        <v>15.197443090262295</v>
+        <v>0.27296602964736577</v>
       </c>
       <c r="V25" s="6">
         <f t="shared" si="61"/>
-        <v>16.678142586166352</v>
+        <v>0.60263755464785285</v>
       </c>
       <c r="W25" s="6">
         <f t="shared" si="61"/>
-        <v>18.115640197431816</v>
+        <v>0.9387748133537509</v>
       </c>
       <c r="X25" s="6">
         <f t="shared" si="61"/>
-        <v>19.930581836447523</v>
+        <v>1.6087895697830523</v>
       </c>
       <c r="Y25" s="6">
         <f t="shared" si="61"/>
-        <v>21.839732785137141</v>
+        <v>2.3228657758858438</v>
       </c>
       <c r="Z25" s="6">
         <f t="shared" si="61"/>
-        <v>23.702372466719105</v>
+        <v>3.1781137764062848</v>
       </c>
       <c r="AA25" s="6">
         <f t="shared" si="61"/>
-        <v>26.209847948481048</v>
+        <v>4.440812166242349</v>
       </c>
       <c r="AB25" s="49">
         <f t="shared" si="61"/>
-        <v>27.358934642440921</v>
+        <v>4.1563019330289572</v>
       </c>
       <c r="AC25" s="50">
         <f t="shared" si="61"/>
-        <v>29.15391198614585</v>
+        <v>4.4639850704260668</v>
       </c>
       <c r="AD25" s="50">
         <f t="shared" si="61"/>
-        <v>30.663774519049866</v>
+        <v>4.8510098373091433</v>
       </c>
       <c r="AE25" s="50">
         <f t="shared" si="61"/>
-        <v>31.679736802454492</v>
+        <v>5.1821452557607186</v>
       </c>
       <c r="AF25" s="51">
         <f t="shared" si="61"/>
-        <v>34.580838193112612</v>
+        <v>6.203366004536857</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -15277,126 +15277,126 @@
       </c>
       <c r="B26" s="17">
         <f>AF25-$AF$3</f>
-        <v>28.56720586988029</v>
+        <v>0.18973368130453316</v>
       </c>
       <c r="C26" s="18">
         <f>((AF25-AA25)-($AF$3-$AA$3))</f>
-        <v>5.9310963052376238</v>
+        <v>-0.67734010109943199</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="5">
         <f>SUM(F26:AA26)</f>
-        <v>3537.1333607331617</v>
+        <v>2.5747267174422457</v>
       </c>
       <c r="F26">
         <f>(F3-F25)^2</f>
-        <v>14.198339537862106</v>
+        <v>1.4661406294334341E-6</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26:AF26" si="62">(G3-G25)^2</f>
-        <v>23.934390638796774</v>
+        <v>3.2308093798059555E-9</v>
       </c>
       <c r="H26">
         <f t="shared" si="62"/>
-        <v>29.636415258243357</v>
+        <v>3.4907352337124929E-6</v>
       </c>
       <c r="I26">
         <f t="shared" si="62"/>
-        <v>34.952285755036563</v>
+        <v>2.9025291314693957E-6</v>
       </c>
       <c r="J26">
         <f t="shared" si="62"/>
-        <v>40.883823583382828</v>
+        <v>2.0012862071736386E-6</v>
       </c>
       <c r="K26">
         <f t="shared" si="62"/>
-        <v>48.743244261571029</v>
+        <v>1.4685652803827357E-6</v>
       </c>
       <c r="L26">
         <f t="shared" si="62"/>
-        <v>55.786568445494872</v>
+        <v>7.7183923020945978E-7</v>
       </c>
       <c r="M26">
         <f t="shared" si="62"/>
-        <v>65.335713416770332</v>
+        <v>6.0418457232686605E-6</v>
       </c>
       <c r="N26">
         <f t="shared" si="62"/>
-        <v>76.826060520571332</v>
+        <v>1.2450048056465151E-4</v>
       </c>
       <c r="O26">
         <f t="shared" si="62"/>
-        <v>91.528240942973639</v>
+        <v>1.5778619839297579E-7</v>
       </c>
       <c r="P26">
         <f t="shared" si="62"/>
-        <v>108.4003856098882</v>
+        <v>1.0404506549492895E-6</v>
       </c>
       <c r="Q26">
         <f t="shared" si="62"/>
-        <v>127.46977769484981</v>
+        <v>2.4717830158914913E-6</v>
       </c>
       <c r="R26">
         <f t="shared" si="62"/>
-        <v>151.35800747491874</v>
+        <v>2.0922394798649838E-5</v>
       </c>
       <c r="S26">
         <f t="shared" si="62"/>
-        <v>170.60466736054335</v>
+        <v>4.6211813197216331E-3</v>
       </c>
       <c r="T26">
         <f t="shared" si="62"/>
-        <v>182.47591057468031</v>
+        <v>1.9155270004500395E-2</v>
       </c>
       <c r="U26">
         <f t="shared" si="62"/>
-        <v>213.91191773824877</v>
+        <v>8.9251037816773154E-2</v>
       </c>
       <c r="V26">
         <f t="shared" si="62"/>
-        <v>249.55580938799113</v>
+        <v>7.7378279664619548E-2</v>
       </c>
       <c r="W26">
         <f t="shared" si="62"/>
-        <v>276.11306714070992</v>
+        <v>0.31384094217431685</v>
       </c>
       <c r="X26">
         <f t="shared" si="62"/>
-        <v>317.20966517949154</v>
+        <v>0.26154166128808803</v>
       </c>
       <c r="Y26">
         <f t="shared" si="62"/>
-        <v>358.90473736759816</v>
+        <v>0.32728209307114964</v>
       </c>
       <c r="Z26">
         <f t="shared" si="62"/>
-        <v>386.91087662103183</v>
+        <v>0.72967206890327996</v>
       </c>
       <c r="AA26">
         <f t="shared" si="62"/>
-        <v>512.39345622250721</v>
+        <v>0.7518169441323187</v>
       </c>
       <c r="AB26" s="43">
         <f t="shared" si="62"/>
-        <v>555.16619209161479</v>
+        <v>0.12911965587134799</v>
       </c>
       <c r="AC26" s="44">
         <f t="shared" si="62"/>
-        <v>628.71119320333037</v>
+        <v>0.14759972060527402</v>
       </c>
       <c r="AD26" s="44">
         <f t="shared" si="62"/>
-        <v>696.08218451374262</v>
+        <v>0.32558982272374376</v>
       </c>
       <c r="AE26" s="44">
         <f t="shared" si="62"/>
-        <v>702.9450304971507</v>
+        <v>2.4083914790725574E-4</v>
       </c>
       <c r="AF26" s="45">
         <f t="shared" si="62"/>
-        <v>816.0852512121229</v>
+        <v>3.5998869821370155E-2</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15405,126 +15405,126 @@
       </c>
       <c r="B27" s="20">
         <f>(B26/$AF$3)*100</f>
-        <v>475.04077958869016</v>
+        <v>3.1550595564604023</v>
       </c>
       <c r="C27" s="21">
         <f>((C26)/($AF$3-$AA$3))*100</f>
-        <v>243.08828385839115</v>
+        <v>-27.761046911230931</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="5">
         <f>SUM(F27:AA27)</f>
-        <v>253.95172603326728</v>
+        <v>4.1778192724306971</v>
       </c>
       <c r="F27">
         <f>SQRT(F26)</f>
-        <v>3.7680684093925505</v>
+        <v>1.2108429416870852E-3</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="63">SQRT(G26)</f>
-        <v>4.8922786755045724</v>
+        <v>5.684020918158162E-5</v>
       </c>
       <c r="H27">
         <f t="shared" ref="H27" si="64">SQRT(H26)</f>
-        <v>5.4439338036243017</v>
+        <v>1.8683509396557416E-3</v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27" si="65">SQRT(I26)</f>
-        <v>5.912045818076562</v>
+        <v>1.7036810533281738E-3</v>
       </c>
       <c r="J27">
         <f t="shared" ref="J27" si="66">SQRT(J26)</f>
-        <v>6.394045947862967</v>
+        <v>1.4146682321921414E-3</v>
       </c>
       <c r="K27">
         <f t="shared" ref="K27" si="67">SQRT(K26)</f>
-        <v>6.9816362166451373</v>
+        <v>1.2118437524626414E-3</v>
       </c>
       <c r="L27">
         <f t="shared" ref="L27" si="68">SQRT(L26)</f>
-        <v>7.4690406643353384</v>
+        <v>8.7854381234487092E-4</v>
       </c>
       <c r="M27">
         <f t="shared" ref="M27" si="69">SQRT(M26)</f>
-        <v>8.0830509967938671</v>
+        <v>2.4580166238796393E-3</v>
       </c>
       <c r="N27">
         <f t="shared" ref="N27" si="70">SQRT(N26)</f>
-        <v>8.7650476621962152</v>
+        <v>1.1157978336806875E-2</v>
       </c>
       <c r="O27">
         <f t="shared" ref="O27" si="71">SQRT(O26)</f>
-        <v>9.5670392987054065</v>
+        <v>3.9722310908729339E-4</v>
       </c>
       <c r="P27">
         <f t="shared" ref="P27" si="72">SQRT(P26)</f>
-        <v>10.41155058624258</v>
+        <v>1.0200248305552613E-3</v>
       </c>
       <c r="Q27">
         <f t="shared" ref="Q27" si="73">SQRT(Q26)</f>
-        <v>11.290251445156118</v>
+        <v>1.5721905151385093E-3</v>
       </c>
       <c r="R27">
         <f t="shared" ref="R27" si="74">SQRT(R26)</f>
-        <v>12.302764220894373</v>
+        <v>4.5741004360037654E-3</v>
       </c>
       <c r="S27">
         <f t="shared" ref="S27" si="75">SQRT(S26)</f>
-        <v>13.061572162666458</v>
+        <v>6.7979271250298304E-2</v>
       </c>
       <c r="T27">
         <f t="shared" ref="T27" si="76">SQRT(T26)</f>
-        <v>13.508364467050788</v>
+        <v>0.13840256502139112</v>
       </c>
       <c r="U27">
         <f t="shared" ref="U27" si="77">SQRT(U26)</f>
-        <v>14.625727938747143</v>
+        <v>0.29874912186778585</v>
       </c>
       <c r="V27">
         <f t="shared" ref="V27" si="78">SQRT(V26)</f>
-        <v>15.797335515459281</v>
+        <v>0.27816951605921802</v>
       </c>
       <c r="W27">
         <f t="shared" ref="W27" si="79">SQRT(W26)</f>
-        <v>16.616650298441918</v>
+        <v>0.56021508563614819</v>
       </c>
       <c r="X27">
         <f t="shared" ref="X27" si="80">SQRT(X26)</f>
-        <v>17.810380826346513</v>
+        <v>0.51141144031795771</v>
       </c>
       <c r="Y27">
         <f t="shared" ref="Y27" si="81">SQRT(Y26)</f>
-        <v>18.944781269985626</v>
+        <v>0.5720857392656713</v>
       </c>
       <c r="Z27">
         <f t="shared" ref="Z27" si="82">SQRT(Z26)</f>
-        <v>19.670050244496881</v>
+        <v>0.8542084458159378</v>
       </c>
       <c r="AA27">
         <f t="shared" ref="AA27" si="83">SQRT(AA26)</f>
-        <v>22.636109564642666</v>
+        <v>0.86707378240396515</v>
       </c>
       <c r="AB27" s="43">
         <f t="shared" ref="AB27" si="84">SQRT(AB26)</f>
-        <v>23.561964945471225</v>
+        <v>0.35933223605926035</v>
       </c>
       <c r="AC27" s="44">
         <f t="shared" ref="AC27" si="85">SQRT(AC26)</f>
-        <v>25.07411400634787</v>
+        <v>0.38418709062808709</v>
       </c>
       <c r="AD27" s="44">
         <f t="shared" ref="AD27" si="86">SQRT(AD26)</f>
-        <v>26.383369468544814</v>
+        <v>0.57060478680409243</v>
       </c>
       <c r="AE27" s="44">
         <f t="shared" ref="AE27" si="87">SQRT(AE26)</f>
-        <v>26.513110539828229</v>
+        <v>1.5518993134454817E-2</v>
       </c>
       <c r="AF27" s="45">
         <f t="shared" ref="AF27" si="88">SQRT(AF26)</f>
-        <v>28.56720586988029</v>
+        <v>0.18973368130453316</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16242,107 +16242,107 @@
       </c>
       <c r="F43">
         <f>G44-F44</f>
-        <v>2.99385764723805</v>
+        <v>1.2992782241229902E-4</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43" si="93">H44-G44</f>
-        <v>3.7676554936283377</v>
+        <v>1.2635134697789024E-4</v>
       </c>
       <c r="H43">
         <f t="shared" ref="H43" si="94">I44-H44</f>
-        <v>4.909145505512523</v>
+        <v>1.6178965942988122E-4</v>
       </c>
       <c r="I43">
         <f t="shared" ref="I43" si="95">J44-I44</f>
-        <v>6.3622943501348637</v>
+        <v>2.0255451830705241E-4</v>
       </c>
       <c r="J43">
         <f t="shared" ref="J43" si="96">K44-J44</f>
-        <v>8.6838484908003863</v>
+        <v>2.6694398484313365E-4</v>
       </c>
       <c r="K43">
         <f t="shared" ref="K43" si="97">L44-K44</f>
-        <v>10.028920953460002</v>
+        <v>5.0231659553306909E-4</v>
       </c>
       <c r="L43">
         <f t="shared" ref="L43" si="98">M44-L44</f>
-        <v>13.830333564569173</v>
+        <v>5.6073442716472049E-4</v>
       </c>
       <c r="M43">
         <f t="shared" ref="M43" si="99">N44-M44</f>
-        <v>17.725915203819021</v>
+        <v>6.2417141033931089E-4</v>
       </c>
       <c r="N43">
         <f t="shared" ref="N43" si="100">O44-N44</f>
-        <v>23.776403704346237</v>
+        <v>1.1858242372256318E-3</v>
       </c>
       <c r="O43">
         <f t="shared" ref="O43" si="101">P44-O44</f>
-        <v>29.691494337905567</v>
+        <v>1.3783429331441829E-3</v>
       </c>
       <c r="P43">
         <f t="shared" ref="P43" si="102">Q44-P44</f>
-        <v>37.068249335360946</v>
+        <v>2.0052316431753547E-3</v>
       </c>
       <c r="Q43">
         <f t="shared" ref="Q43" si="103">R44-Q44</f>
-        <v>48.057477134983088</v>
+        <v>4.6872976406505899E-3</v>
       </c>
       <c r="R43">
         <f t="shared" ref="R43" si="104">S44-R44</f>
-        <v>52.564503511872999</v>
+        <v>1.0020816670599175E-2</v>
       </c>
       <c r="S43">
         <f t="shared" ref="S43" si="105">T44-S44</f>
-        <v>54.065480279324106</v>
+        <v>1.3044044290651646E-2</v>
       </c>
       <c r="T43">
         <f t="shared" ref="T43" si="106">U44-T44</f>
-        <v>89.499372913202023</v>
+        <v>2.783216392945749E-2</v>
       </c>
       <c r="U43">
         <f t="shared" ref="U43" si="107">V44-U44</f>
-        <v>92.823070776107443</v>
+        <v>5.8388478683538747E-2</v>
       </c>
       <c r="V43">
         <f t="shared" ref="V43" si="108">W44-V44</f>
-        <v>102.52345105404447</v>
+        <v>0.14457189268648296</v>
       </c>
       <c r="W43">
         <f t="shared" ref="W43" si="109">X44-W44</f>
-        <v>116.32355850490728</v>
+        <v>0.27876708478409723</v>
       </c>
       <c r="X43">
         <f t="shared" ref="X43" si="110">Y44-X44</f>
-        <v>125.62170967239751</v>
+        <v>0.56973884320764356</v>
       </c>
       <c r="Y43">
         <f t="shared" ref="Y43" si="111">Z44-Y44</f>
-        <v>118.45172064921951</v>
+        <v>0.58003446350057009</v>
       </c>
       <c r="Z43">
         <f t="shared" ref="Z43" si="112">AA44-Z44</f>
-        <v>137.9225529118911</v>
+        <v>0.95341686439544637</v>
       </c>
       <c r="AA43">
         <f t="shared" ref="AA43" si="113">AB44-AA44</f>
-        <v>144.95420981128404</v>
+        <v>1.3853449338042085</v>
       </c>
       <c r="AB43" s="43">
         <f t="shared" ref="AB43" si="114">AC44-AB44</f>
-        <v>160.47605690128307</v>
+        <v>1.3158003502931335</v>
       </c>
       <c r="AC43" s="44">
         <f t="shared" ref="AC43" si="115">AD44-AC44</f>
-        <v>120.58378761542099</v>
+        <v>1.5517979190036444</v>
       </c>
       <c r="AD43" s="44">
         <f t="shared" ref="AD43" si="116">AE44-AD44</f>
-        <v>84.711555510339622</v>
+        <v>2.218271067693725</v>
       </c>
       <c r="AE43" s="44">
         <f t="shared" ref="AE43" si="117">AF44-AE44</f>
-        <v>176.60022994550741</v>
+        <v>2.9230212988716939</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -16358,111 +16358,111 @@
       </c>
       <c r="F44" s="12">
         <f>$E$3+$C43*E4*(1/(1+EXP(-$A43*(F42-$B43))))</f>
-        <v>9.9685588355578609</v>
+        <v>4.2317864906722125E-3</v>
       </c>
       <c r="G44" s="12">
         <f>$E$3+$C43*F4*(1/(1+EXP(-$A43*(G42-$B43))))</f>
-        <v>12.962416482795911</v>
+        <v>4.3617143130845115E-3</v>
       </c>
       <c r="H44" s="12">
         <f t="shared" ref="H44:AF44" si="118">$E$3+$C43*G4*(1/(1+EXP(-$A43*(H42-$B43))))</f>
-        <v>16.730071976424249</v>
+        <v>4.4880656600624017E-3</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="118"/>
-        <v>21.639217481936772</v>
+        <v>4.6498553194922829E-3</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="118"/>
-        <v>28.001511832071635</v>
+        <v>4.8524098377993354E-3</v>
       </c>
       <c r="K44" s="12">
         <f>$E$3+$C43*J4*(1/(1+EXP(-$A43*(K42-$B43))))</f>
-        <v>36.685360322872022</v>
+        <v>5.119353822642469E-3</v>
       </c>
       <c r="L44" s="12">
         <f t="shared" si="118"/>
-        <v>46.714281276332024</v>
+        <v>5.6216704181755381E-3</v>
       </c>
       <c r="M44" s="12">
         <f t="shared" si="118"/>
-        <v>60.544614840901197</v>
+        <v>6.1824048453402586E-3</v>
       </c>
       <c r="N44" s="12">
         <f t="shared" si="118"/>
-        <v>78.270530044720218</v>
+        <v>6.8065762556795695E-3</v>
       </c>
       <c r="O44" s="12">
         <f t="shared" si="118"/>
-        <v>102.04693374906645</v>
+        <v>7.9924004929052012E-3</v>
       </c>
       <c r="P44" s="12">
         <f t="shared" si="118"/>
-        <v>131.73842808697202</v>
+        <v>9.3707434260493841E-3</v>
       </c>
       <c r="Q44" s="12">
         <f t="shared" si="118"/>
-        <v>168.80667742233297</v>
+        <v>1.1375975069224739E-2</v>
       </c>
       <c r="R44" s="12">
         <f t="shared" si="118"/>
-        <v>216.86415455731606</v>
+        <v>1.6063272709875329E-2</v>
       </c>
       <c r="S44" s="12">
         <f t="shared" si="118"/>
-        <v>269.42865806918905</v>
+        <v>2.6084089380474504E-2</v>
       </c>
       <c r="T44" s="12">
         <f t="shared" si="118"/>
-        <v>323.49413834851316</v>
+        <v>3.912813367112615E-2</v>
       </c>
       <c r="U44" s="12">
         <f t="shared" si="118"/>
-        <v>412.99351126171518</v>
+        <v>6.696029760058364E-2</v>
       </c>
       <c r="V44" s="12">
         <f t="shared" si="118"/>
-        <v>505.81658203782263</v>
+        <v>0.12534877628412239</v>
       </c>
       <c r="W44" s="12">
         <f t="shared" si="118"/>
-        <v>608.3400330918671</v>
+        <v>0.26992066897060535</v>
       </c>
       <c r="X44" s="12">
         <f t="shared" si="118"/>
-        <v>724.66359159677438</v>
+        <v>0.54868775375470258</v>
       </c>
       <c r="Y44" s="12">
         <f t="shared" si="118"/>
-        <v>850.2853012691719</v>
+        <v>1.1184265969623461</v>
       </c>
       <c r="Z44" s="12">
         <f t="shared" si="118"/>
-        <v>968.73702191839141</v>
+        <v>1.6984610604629162</v>
       </c>
       <c r="AA44" s="12">
         <f t="shared" si="118"/>
-        <v>1106.6595748302825</v>
+        <v>2.6518779248583626</v>
       </c>
       <c r="AB44" s="52">
         <f t="shared" si="118"/>
-        <v>1251.6137846415666</v>
+        <v>4.0372228586625711</v>
       </c>
       <c r="AC44" s="53">
         <f t="shared" si="118"/>
-        <v>1412.0898415428496</v>
+        <v>5.3530232089557046</v>
       </c>
       <c r="AD44" s="53">
         <f t="shared" si="118"/>
-        <v>1532.6736291582706</v>
+        <v>6.904821127959349</v>
       </c>
       <c r="AE44" s="53">
         <f t="shared" si="118"/>
-        <v>1617.3851846686102</v>
+        <v>9.1230921956530739</v>
       </c>
       <c r="AF44" s="54">
         <f t="shared" si="118"/>
-        <v>1793.9854146141176</v>
+        <v>12.046113494524768</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -16471,126 +16471,126 @@
       </c>
       <c r="B45" s="17">
         <f>AF44-$AF$3</f>
-        <v>1787.9717822908854</v>
+        <v>6.032481171292444</v>
       </c>
       <c r="C45" s="18">
         <f>((AF44-AA44)-($AF$3-$AA$3))</f>
-        <v>684.88594584444115</v>
+        <v>6.9543416302724648</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="5">
         <f>SUM(F45:AA45)</f>
-        <v>4476287.3678291049</v>
+        <v>14.314122343427146</v>
       </c>
       <c r="F45" s="3">
         <f>(F44-F$3)^2</f>
-        <v>99.254675940693716</v>
+        <v>2.765404396473547E-6</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" ref="G45" si="119">(G44-G$3)^2</f>
-        <v>167.84417998443072</v>
+        <v>6.6856049886596581E-6</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" ref="H45" si="120">(H44-H$3)^2</f>
-        <v>279.55728689801487</v>
+        <v>3.1552905955802028E-5</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" ref="I45" si="121">(I44-I$3)^2</f>
-        <v>467.68190042555239</v>
+        <v>7.4188981252714515E-5</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" ref="J45" si="122">(J44-J$3)^2</f>
-        <v>783.16530593350092</v>
+        <v>1.3383349609006904E-4</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" ref="K45" si="123">(K44-K$3)^2</f>
-        <v>1344.3795238762266</v>
+        <v>2.0907984550912193E-4</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" ref="L45" si="124">(L44-L$3)^2</f>
-        <v>2180.1003216533722</v>
+        <v>2.9292910187848572E-4</v>
       </c>
       <c r="M45" s="3">
         <f t="shared" ref="M45" si="125">(M44-M$3)^2</f>
-        <v>3662.891345779909</v>
+        <v>2.7579473541897598E-4</v>
       </c>
       <c r="N45" s="3">
         <f t="shared" ref="N45" si="126">(N44-N$3)^2</f>
-        <v>6124.0433070620593</v>
+        <v>5.560060973992602E-5</v>
       </c>
       <c r="O45" s="3">
         <f t="shared" ref="O45" si="127">(O44-O$3)^2</f>
-        <v>10410.10738083889</v>
+        <v>8.1136848880214484E-5</v>
       </c>
       <c r="P45" s="3">
         <f t="shared" ref="P45" si="128">(P44-P$3)^2</f>
-        <v>17349.480861846649</v>
+        <v>1.3523960846277365E-4</v>
       </c>
       <c r="Q45" s="3">
         <f t="shared" ref="Q45" si="129">(Q44-Q$3)^2</f>
-        <v>28486.917071141615</v>
+        <v>2.1386210517593634E-4</v>
       </c>
       <c r="R45" s="3">
         <f t="shared" ref="R45" si="130">(R44-R$3)^2</f>
-        <v>47014.882266040455</v>
+        <v>3.5859964046055262E-4</v>
       </c>
       <c r="S45" s="3">
         <f t="shared" ref="S45" si="131">(S44-S$3)^2</f>
-        <v>72533.078222504919</v>
+        <v>6.8750482338651407E-3</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" ref="T45" si="132">(T44-T$3)^2</f>
-        <v>104483.18140599973</v>
+        <v>4.6840828943540802E-2</v>
       </c>
       <c r="U45" s="3">
         <f t="shared" ref="U45" si="133">(U44-U$3)^2</f>
-        <v>170091.73790676342</v>
+        <v>0.25477746255031686</v>
       </c>
       <c r="V45" s="3">
         <f t="shared" ref="V45" si="134">(V44-V$3)^2</f>
-        <v>254960.13684164156</v>
+        <v>0.57071723461243018</v>
       </c>
       <c r="W45" s="3">
         <f t="shared" ref="W45" si="135">(W44-W$3)^2</f>
-        <v>368256.05170341948</v>
+        <v>1.5106111721802198</v>
       </c>
       <c r="X45" s="3">
         <f t="shared" ref="X45" si="136">(X44-X$3)^2</f>
-        <v>522068.95128048601</v>
+        <v>2.469653914872175</v>
       </c>
       <c r="Y45" s="3">
         <f t="shared" ref="Y45" si="137">(Y44-Y$3)^2</f>
-        <v>718070.40485624096</v>
+        <v>3.1560407849470331</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" ref="Z45" si="138">(Z44-Z$3)^2</f>
-        <v>930655.15761587594</v>
+        <v>5.4469079223684984</v>
       </c>
       <c r="AA45" s="3">
         <f t="shared" ref="AA45" si="139">(AA44-AA$3)^2</f>
-        <v>1216798.3625687512</v>
+        <v>0.8498267058308554</v>
       </c>
       <c r="AB45" s="46">
         <f t="shared" ref="AB45" si="140">(AB44-AB$3)^2</f>
-        <v>1557046.8036584784</v>
+        <v>5.7721581703422377E-2</v>
       </c>
       <c r="AC45" s="47">
         <f t="shared" ref="AC45" si="141">(AC44-AC$3)^2</f>
-        <v>1982492.2827744263</v>
+        <v>1.6211024841637409</v>
       </c>
       <c r="AD45" s="47">
         <f t="shared" ref="AD45" si="142">(AD44-AD$3)^2</f>
-        <v>2335985.8474985301</v>
+        <v>6.887559747600605</v>
       </c>
       <c r="AE45" s="47">
         <f t="shared" ref="AE45" si="143">(AE44-AE$3)^2</f>
-        <v>2599248.6800686689</v>
+        <v>15.653622679201707</v>
       </c>
       <c r="AF45" s="48">
         <f t="shared" ref="AF45" si="144">(AF44-AF$3)^2</f>
-        <v>3196843.0942684449</v>
+        <v>36.390829081997857</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16599,126 +16599,126 @@
       </c>
       <c r="B46" s="20">
         <f>(B45/$AF$3)*100</f>
-        <v>29731.977051264941</v>
+        <v>100.3134353257232</v>
       </c>
       <c r="C46" s="21">
         <f>((C45)/($AF$3-$AA$3))*100</f>
-        <v>28070.316286558096</v>
+        <v>285.0263906143353</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="5">
         <f>SUM(F46:AA46)</f>
-        <v>6685.2228885253671</v>
+        <v>9.532269277053512</v>
       </c>
       <c r="F46">
         <f>SQRT(F45)</f>
-        <v>9.9626640985578607</v>
+        <v>1.6629505093277873E-3</v>
       </c>
       <c r="G46">
         <f t="shared" ref="G46" si="145">SQRT(G45)</f>
-        <v>12.95546911479591</v>
+        <v>2.5856536869154883E-3</v>
       </c>
       <c r="H46">
         <f t="shared" ref="H46" si="146">SQRT(H45)</f>
-        <v>16.719966713424249</v>
+        <v>5.617197339937598E-3</v>
       </c>
       <c r="I46">
         <f t="shared" ref="I46" si="147">SQRT(I45)</f>
-        <v>21.625954324042034</v>
+        <v>8.6133025752445566E-3</v>
       </c>
       <c r="J46">
         <f t="shared" ref="J46" si="148">SQRT(J45)</f>
-        <v>27.985090779440057</v>
+        <v>1.1568642793779615E-2</v>
       </c>
       <c r="K46">
         <f t="shared" ref="K46" si="149">SQRT(K45)</f>
-        <v>36.665781375503599</v>
+        <v>1.4459593545778592E-2</v>
       </c>
       <c r="L46">
         <f t="shared" ref="L46" si="150">SQRT(L45)</f>
-        <v>46.691544434226763</v>
+        <v>1.7115171687087621E-2</v>
       </c>
       <c r="M46">
         <f t="shared" ref="M46" si="151">SQRT(M45)</f>
-        <v>60.521825367216984</v>
+        <v>1.6607068838870271E-2</v>
       </c>
       <c r="N46">
         <f t="shared" ref="N46" si="152">SQRT(N45)</f>
-        <v>78.256266886825486</v>
+        <v>7.456581639057271E-3</v>
       </c>
       <c r="O46">
         <f t="shared" ref="O46" si="153">SQRT(O45)</f>
-        <v>102.02993374906646</v>
+        <v>9.0075995070948E-3</v>
       </c>
       <c r="P46">
         <f t="shared" ref="P46" si="154">SQRT(P45)</f>
-        <v>131.71742808697203</v>
+        <v>1.1629256573950617E-2</v>
       </c>
       <c r="Q46">
         <f t="shared" ref="Q46" si="155">SQRT(Q45)</f>
-        <v>168.78067742233296</v>
+        <v>1.462402493077526E-2</v>
       </c>
       <c r="R46">
         <f t="shared" ref="R46" si="156">SQRT(R45)</f>
-        <v>216.82915455731606</v>
+        <v>1.8936727290124675E-2</v>
       </c>
       <c r="S46">
         <f t="shared" ref="S46" si="157">SQRT(S45)</f>
-        <v>269.31965806918907</v>
+        <v>8.2915910619525496E-2</v>
       </c>
       <c r="T46">
         <f t="shared" ref="T46" si="158">SQRT(T45)</f>
-        <v>323.23858279295763</v>
+        <v>0.21642742188442943</v>
       </c>
       <c r="U46">
         <f t="shared" ref="U46" si="159">SQRT(U45)</f>
-        <v>412.42179611020003</v>
+        <v>0.50475485391456798</v>
       </c>
       <c r="V46">
         <f t="shared" ref="V46" si="160">SQRT(V45)</f>
-        <v>504.93577496711555</v>
+        <v>0.75545829442294843</v>
       </c>
       <c r="W46">
         <f t="shared" ref="W46" si="161">SQRT(W45)</f>
-        <v>606.84104319287724</v>
+        <v>1.2290692300192938</v>
       </c>
       <c r="X46">
         <f t="shared" ref="X46" si="162">SQRT(X45)</f>
-        <v>722.54339058667335</v>
+        <v>1.5715132563463075</v>
       </c>
       <c r="Y46">
         <f t="shared" ref="Y46" si="163">SQRT(Y45)</f>
-        <v>847.39034975402035</v>
+        <v>1.7765249181891689</v>
       </c>
       <c r="Z46">
         <f t="shared" ref="Z46" si="164">SQRT(Z45)</f>
-        <v>964.7046996961692</v>
+        <v>2.3338611617593061</v>
       </c>
       <c r="AA46">
         <f t="shared" ref="AA46" si="165">SQRT(AA45)</f>
-        <v>1103.0858364464441</v>
+        <v>0.92186045898002122</v>
       </c>
       <c r="AB46" s="43">
         <f t="shared" ref="AB46" si="166">SQRT(AB45)</f>
-        <v>1247.8168149445969</v>
+        <v>0.24025316169287425</v>
       </c>
       <c r="AC46" s="44">
         <f t="shared" ref="AC46" si="167">SQRT(AC45)</f>
-        <v>1408.0100435630516</v>
+        <v>1.2732252291577248</v>
       </c>
       <c r="AD46" s="44">
         <f t="shared" ref="AD46" si="168">SQRT(AD45)</f>
-        <v>1528.3932241077655</v>
+        <v>2.6244160774542982</v>
       </c>
       <c r="AE46" s="44">
         <f t="shared" ref="AE46" si="169">SQRT(AE45)</f>
-        <v>1612.2185584059839</v>
+        <v>3.9564659330268102</v>
       </c>
       <c r="AF46" s="45">
         <f t="shared" ref="AF46" si="170">SQRT(AF45)</f>
-        <v>1787.9717822908854</v>
+        <v>6.032481171292444</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16839,107 +16839,107 @@
       </c>
       <c r="F53">
         <f>G54-F54</f>
-        <v>2.7694143446222554</v>
+        <v>1.1928743038828061E-4</v>
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="171">H54-G54</f>
-        <v>3.5637159723888505</v>
+        <v>1.2125274902546803E-4</v>
       </c>
       <c r="H53">
         <f t="shared" ref="H53" si="172">I54-H54</f>
-        <v>4.7244433367460559</v>
+        <v>1.5757036704707947E-4</v>
       </c>
       <c r="I53">
         <f t="shared" ref="I53" si="173">J54-I54</f>
-        <v>6.2210724060144749</v>
+        <v>2.0029173499624617E-4</v>
       </c>
       <c r="J53">
         <f t="shared" ref="J53" si="174">K54-J54</f>
-        <v>8.5828693826187248</v>
+        <v>2.6647608563466155E-4</v>
       </c>
       <c r="K53">
         <f t="shared" ref="K53" si="175">L54-K54</f>
-        <v>10.100968224663823</v>
+        <v>4.9683427927200985E-4</v>
       </c>
       <c r="L53">
         <f t="shared" ref="L53" si="176">M54-L54</f>
-        <v>13.993762803046685</v>
+        <v>5.6568980693061724E-4</v>
       </c>
       <c r="M53">
         <f t="shared" ref="M53" si="177">N54-M54</f>
-        <v>18.061010086658747</v>
+        <v>6.3863782902510904E-4</v>
       </c>
       <c r="N53">
         <f t="shared" ref="N53" si="178">O54-N54</f>
-        <v>24.285207590657436</v>
+        <v>1.2010969450853073E-3</v>
       </c>
       <c r="O53">
         <f t="shared" ref="O53" si="179">P54-O54</f>
-        <v>30.404894757359799</v>
+        <v>1.4064289100758284E-3</v>
       </c>
       <c r="P53">
         <f t="shared" ref="P53" si="180">Q54-P54</f>
-        <v>37.930767304603194</v>
+        <v>2.0418169551408259E-3</v>
       </c>
       <c r="Q53">
         <f t="shared" ref="Q53" si="181">R54-Q54</f>
-        <v>48.975994987784304</v>
+        <v>4.7407650462441241E-3</v>
       </c>
       <c r="R53">
         <f t="shared" ref="R53" si="182">S54-R54</f>
-        <v>53.338186326371499</v>
+        <v>1.0112559330970935E-2</v>
       </c>
       <c r="S53">
         <f t="shared" ref="S53" si="183">T54-S54</f>
-        <v>54.451498269778028</v>
+        <v>1.3134893321197133E-2</v>
       </c>
       <c r="T53">
         <f t="shared" ref="T53" si="184">U54-T54</f>
-        <v>89.539002986442654</v>
+        <v>2.793551005229071E-2</v>
       </c>
       <c r="U53">
         <f t="shared" ref="U53" si="185">V54-U54</f>
-        <v>92.17168769662436</v>
+        <v>5.8429781940668751E-2</v>
       </c>
       <c r="V53">
         <f t="shared" ref="V53" si="186">W54-V54</f>
-        <v>101.30213359705488</v>
+        <v>0.14435550446969844</v>
       </c>
       <c r="W53">
         <f t="shared" ref="W53" si="187">X54-W54</f>
-        <v>114.87923117729906</v>
+        <v>0.27780395626332721</v>
       </c>
       <c r="X53">
         <f t="shared" ref="X53" si="188">Y54-X54</f>
-        <v>124.62409563117058</v>
+        <v>0.56784207399338738</v>
       </c>
       <c r="Y53">
         <f t="shared" ref="Y53" si="189">Z54-Y54</f>
-        <v>118.93626591892109</v>
+        <v>0.57998259324692625</v>
       </c>
       <c r="Z53">
         <f t="shared" ref="Z53" si="190">AA54-Z54</f>
-        <v>141.06233109173127</v>
+        <v>0.95992150589230829</v>
       </c>
       <c r="AA53">
         <f t="shared" ref="AA53" si="191">AB54-AA54</f>
-        <v>152.18502798923919</v>
+        <v>1.4099517156247003</v>
       </c>
       <c r="AB53" s="43">
         <f t="shared" ref="AB53" si="192">AC54-AB54</f>
-        <v>173.39012072697619</v>
+        <v>1.3696999171835627</v>
       </c>
       <c r="AC53" s="44">
         <f t="shared" ref="AC53" si="193">AD54-AC54</f>
-        <v>139.41789273282188</v>
+        <v>1.6521162950392494</v>
       </c>
       <c r="AD53" s="44">
         <f t="shared" ref="AD53" si="194">AE54-AD54</f>
-        <v>109.07052973265809</v>
+        <v>2.4016683308555944</v>
       </c>
       <c r="AE53" s="44">
         <f t="shared" ref="AE53" si="195">AF54-AE54</f>
-        <v>212.45443043181945</v>
+        <v>3.2334306715700958</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -16955,111 +16955,111 @@
       </c>
       <c r="F54" s="12">
         <f>$E$3+($C53/($C53+E5))*E4*(1/(1+EXP(-$A53*(F52-$B53))))</f>
-        <v>8.3139226650049114</v>
+        <v>4.1670800763409406E-3</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" ref="G54:AF54" si="196">$E$3+($C53/($C53+F5))*F4*(1/(1+EXP(-$A53*(G52-$B53))))</f>
-        <v>11.083337009627167</v>
+        <v>4.2863675067292212E-3</v>
       </c>
       <c r="H54" s="12">
         <f t="shared" si="196"/>
-        <v>14.647052982016017</v>
+        <v>4.4076202557546892E-3</v>
       </c>
       <c r="I54" s="12">
         <f t="shared" si="196"/>
-        <v>19.371496318762073</v>
+        <v>4.5651906228017687E-3</v>
       </c>
       <c r="J54" s="12">
         <f t="shared" si="196"/>
-        <v>25.592568724776548</v>
+        <v>4.7654823577980149E-3</v>
       </c>
       <c r="K54" s="12">
         <f t="shared" si="196"/>
-        <v>34.175438107395273</v>
+        <v>5.0319584434326764E-3</v>
       </c>
       <c r="L54" s="12">
         <f t="shared" si="196"/>
-        <v>44.276406332059096</v>
+        <v>5.5287927227046863E-3</v>
       </c>
       <c r="M54" s="12">
         <f t="shared" si="196"/>
-        <v>58.270169135105782</v>
+        <v>6.0944825296353035E-3</v>
       </c>
       <c r="N54" s="12">
         <f t="shared" si="196"/>
-        <v>76.331179221764529</v>
+        <v>6.7331203586604126E-3</v>
       </c>
       <c r="O54" s="12">
         <f t="shared" si="196"/>
-        <v>100.61638681242196</v>
+        <v>7.9342173037457199E-3</v>
       </c>
       <c r="P54" s="12">
         <f t="shared" si="196"/>
-        <v>131.02128156978176</v>
+        <v>9.3406462138215483E-3</v>
       </c>
       <c r="Q54" s="12">
         <f t="shared" si="196"/>
-        <v>168.95204887438496</v>
+        <v>1.1382463168962374E-2</v>
       </c>
       <c r="R54" s="12">
         <f t="shared" si="196"/>
-        <v>217.92804386216926</v>
+        <v>1.6123228215206498E-2</v>
       </c>
       <c r="S54" s="12">
         <f t="shared" si="196"/>
-        <v>271.26623018854076</v>
+        <v>2.6235787546177433E-2</v>
       </c>
       <c r="T54" s="12">
         <f t="shared" si="196"/>
-        <v>325.71772845831879</v>
+        <v>3.9370680867374566E-2</v>
       </c>
       <c r="U54" s="12">
         <f t="shared" si="196"/>
-        <v>415.25673144476144</v>
+        <v>6.7306190919665276E-2</v>
       </c>
       <c r="V54" s="12">
         <f t="shared" si="196"/>
-        <v>507.4284191413858</v>
+        <v>0.12573597286033403</v>
       </c>
       <c r="W54" s="12">
         <f t="shared" si="196"/>
-        <v>608.73055273844068</v>
+        <v>0.27009147733003247</v>
       </c>
       <c r="X54" s="12">
         <f t="shared" si="196"/>
-        <v>723.60978391573974</v>
+        <v>0.54789543359335968</v>
       </c>
       <c r="Y54" s="12">
         <f t="shared" si="196"/>
-        <v>848.23387954691032</v>
+        <v>1.1157375075867471</v>
       </c>
       <c r="Z54" s="12">
         <f t="shared" si="196"/>
-        <v>967.17014546583141</v>
+        <v>1.6957201008336733</v>
       </c>
       <c r="AA54" s="12">
         <f t="shared" si="196"/>
-        <v>1108.2324765575627</v>
+        <v>2.6556416067259816</v>
       </c>
       <c r="AB54" s="52">
         <f t="shared" si="196"/>
-        <v>1260.4175045468019</v>
+        <v>4.0655933223506819</v>
       </c>
       <c r="AC54" s="53">
         <f t="shared" si="196"/>
-        <v>1433.8076252737781</v>
+        <v>5.4352932395342446</v>
       </c>
       <c r="AD54" s="53">
         <f t="shared" si="196"/>
-        <v>1573.2255180065999</v>
+        <v>7.087409534573494</v>
       </c>
       <c r="AE54" s="53">
         <f t="shared" si="196"/>
-        <v>1682.296047739258</v>
+        <v>9.4890778654290884</v>
       </c>
       <c r="AF54" s="54">
         <f t="shared" si="196"/>
-        <v>1894.7504781710775</v>
+        <v>12.722508536999184</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
@@ -17068,126 +17068,126 @@
       </c>
       <c r="B55" s="17">
         <f>AF54-$AF$3</f>
-        <v>1888.7368458478452</v>
+        <v>6.7088762137668603</v>
       </c>
       <c r="C55" s="18">
         <f>((AF54-AA54)-($AF$3-$AA$3))</f>
-        <v>784.07810767412082</v>
+        <v>7.6269729908792634</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="5">
         <f>SUM(F55:AA55)</f>
-        <v>4476858.2706267964</v>
+        <v>14.330581710146932</v>
       </c>
       <c r="F55" s="3">
         <f>(F54-F$3)^2</f>
-        <v>69.023328052509584</v>
+        <v>2.9847984458670839E-6</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" ref="G55" si="197">(G54-G$3)^2</f>
-        <v>122.68640749314558</v>
+        <v>7.0809236251873271E-6</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" ref="H55" si="198">(H54-H$3)^2</f>
-        <v>214.2402385292082</v>
+        <v>3.2463132841051233E-5</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" ref="I55" si="199">(I54-I$3)^2</f>
-        <v>374.74119111050373</v>
+        <v>7.5654634663653613E-5</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" ref="J55" si="200">(J54-J$3)^2</f>
-        <v>654.13932974736656</v>
+        <v>1.3585231840704579E-4</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" ref="K55" si="201">(K54-K$3)^2</f>
-        <v>1166.62271495959</v>
+        <v>2.1161488678373471E-4</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" ref="L55" si="202">(L54-L$3)^2</f>
-        <v>1958.387263326071</v>
+        <v>2.9611696355257109E-4</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" ref="M55" si="203">(M54-M$3)^2</f>
-        <v>3392.7572374217871</v>
+        <v>2.7872272965134506E-4</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" ref="N55" si="204">(N54-N$3)^2</f>
-        <v>5824.271677499748</v>
+        <v>5.6701465294719961E-5</v>
       </c>
       <c r="O55" s="3">
         <f t="shared" ref="O55" si="205">(O54-O$3)^2</f>
-        <v>10120.2366270353</v>
+        <v>8.2188415895703543E-5</v>
       </c>
       <c r="P55" s="3">
         <f t="shared" ref="P55" si="206">(P54-P$3)^2</f>
-        <v>17161.073771362106</v>
+        <v>1.3594053071127384E-4</v>
       </c>
       <c r="Q55" s="3">
         <f t="shared" ref="Q55" si="207">(Q54-Q$3)^2</f>
-        <v>28536.009988311092</v>
+        <v>2.1367238300674149E-4</v>
       </c>
       <c r="R55" s="3">
         <f t="shared" ref="R55" si="208">(R54-R$3)^2</f>
-        <v>47477.378563521219</v>
+        <v>3.5633251301517619E-4</v>
       </c>
       <c r="S55" s="3">
         <f t="shared" ref="S55" si="209">(S54-S$3)^2</f>
-        <v>73526.243483521292</v>
+        <v>6.8499148631014787E-3</v>
       </c>
       <c r="T55" s="3">
         <f t="shared" ref="T55" si="210">(T54-T$3)^2</f>
-        <v>105925.62599058816</v>
+        <v>4.6735900043944539E-2</v>
       </c>
       <c r="U55" s="3">
         <f t="shared" ref="U55" si="211">(U54-U$3)^2</f>
-        <v>171963.66273812993</v>
+        <v>0.25442839952901891</v>
       </c>
       <c r="V55" s="3">
         <f t="shared" ref="V55" si="212">(V54-V$3)^2</f>
-        <v>256590.48329450682</v>
+        <v>0.57013236280347646</v>
       </c>
       <c r="W55" s="3">
         <f t="shared" ref="W55" si="213">(W54-W$3)^2</f>
-        <v>368730.17090844188</v>
+        <v>1.5101913307581114</v>
       </c>
       <c r="X55" s="3">
         <f t="shared" ref="X55" si="214">(X54-X$3)^2</f>
-        <v>520547.21824135253</v>
+        <v>2.4721448259170549</v>
       </c>
       <c r="Y55" s="3">
         <f t="shared" ref="Y55" si="215">(Y54-Y$3)^2</f>
-        <v>714597.90324588306</v>
+        <v>3.1656024847146824</v>
       </c>
       <c r="Z55" s="3">
         <f t="shared" ref="Z55" si="216">(Z54-Z$3)^2</f>
-        <v>927634.46656243782</v>
+        <v>5.4597094736774681</v>
       </c>
       <c r="AA55" s="3">
         <f t="shared" ref="AA55" si="217">(AA54-AA$3)^2</f>
-        <v>1220270.9278235647</v>
+        <v>0.84290169214417998</v>
       </c>
       <c r="AB55" s="46">
         <f t="shared" ref="AB55" si="218">(AB54-AB$3)^2</f>
-        <v>1579095.1686062785</v>
+        <v>7.2158652112823796E-2</v>
       </c>
       <c r="AC55" s="47">
         <f t="shared" ref="AC55" si="219">(AC54-AC$3)^2</f>
-        <v>2044121.6601387647</v>
+        <v>1.8373673991674841</v>
       </c>
       <c r="AD55" s="47">
         <f t="shared" ref="AD55" si="220">(AD54-AD$3)^2</f>
-        <v>2461588.7674688133</v>
+        <v>7.8792741735803471</v>
       </c>
       <c r="AE55" s="47">
         <f t="shared" ref="AE55" si="221">(AE54-AE$3)^2</f>
-        <v>2812763.0963825416</v>
+        <v>18.683587858572707</v>
       </c>
       <c r="AF55" s="48">
         <f t="shared" ref="AF55" si="222">(AF54-AF$3)^2</f>
-        <v>3567326.8728632671</v>
+        <v>45.009020051646765</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17196,126 +17196,126 @@
       </c>
       <c r="B56" s="20">
         <f>(B55/$AF$3)*100</f>
-        <v>31407.58769955278</v>
+        <v>111.56113066388539</v>
       </c>
       <c r="C56" s="21">
         <f>((C55)/($AF$3-$AA$3))*100</f>
-        <v>32135.745534450678</v>
+        <v>312.59444796906922</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="5">
         <f>SUM(F56:AA56)</f>
-        <v>6670.0569982651014</v>
+        <v>9.5341853996208172</v>
       </c>
       <c r="F56">
         <f>SQRT(F55)</f>
-        <v>8.3080279280049112</v>
+        <v>1.7276569236590591E-3</v>
       </c>
       <c r="G56">
         <f t="shared" ref="G56" si="223">SQRT(G55)</f>
-        <v>11.076389641627166</v>
+        <v>2.6610004932707786E-3</v>
       </c>
       <c r="H56">
         <f t="shared" ref="H56" si="224">SQRT(H55)</f>
-        <v>14.636947719016018</v>
+        <v>5.6976427442453105E-3</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56" si="225">SQRT(I55)</f>
-        <v>19.358233160867336</v>
+        <v>8.6979672719350708E-3</v>
       </c>
       <c r="J56">
         <f t="shared" ref="J56" si="226">SQRT(J55)</f>
-        <v>25.57614767214497</v>
+        <v>1.1655570273780936E-2</v>
       </c>
       <c r="K56">
         <f t="shared" ref="K56" si="227">SQRT(K55)</f>
-        <v>34.15585916002685</v>
+        <v>1.4546988924988385E-2</v>
       </c>
       <c r="L56">
         <f t="shared" ref="L56" si="228">SQRT(L55)</f>
-        <v>44.253669489953836</v>
+        <v>1.7208049382558474E-2</v>
       </c>
       <c r="M56">
         <f t="shared" ref="M56" si="229">SQRT(M55)</f>
-        <v>58.247379661421569</v>
+        <v>1.6694991154575227E-2</v>
       </c>
       <c r="N56">
         <f t="shared" ref="N56" si="230">SQRT(N55)</f>
-        <v>76.316916063869797</v>
+        <v>7.5300375360764279E-3</v>
       </c>
       <c r="O56">
         <f t="shared" ref="O56" si="231">SQRT(O55)</f>
-        <v>100.59938681242197</v>
+        <v>9.0657826962542813E-3</v>
       </c>
       <c r="P56">
         <f t="shared" ref="P56" si="232">SQRT(P55)</f>
-        <v>131.00028156978178</v>
+        <v>1.1659353786178453E-2</v>
       </c>
       <c r="Q56">
         <f t="shared" ref="Q56" si="233">SQRT(Q55)</f>
-        <v>168.92604887438495</v>
+        <v>1.4617536831037625E-2</v>
       </c>
       <c r="R56">
         <f t="shared" ref="R56" si="234">SQRT(R55)</f>
-        <v>217.89304386216926</v>
+        <v>1.8876771784793505E-2</v>
       </c>
       <c r="S56">
         <f t="shared" ref="S56" si="235">SQRT(S55)</f>
-        <v>271.15723018854078</v>
+        <v>8.2764212453822567E-2</v>
       </c>
       <c r="T56">
         <f t="shared" ref="T56" si="236">SQRT(T55)</f>
-        <v>325.46217290276326</v>
+        <v>0.21618487468818104</v>
       </c>
       <c r="U56">
         <f t="shared" ref="U56" si="237">SQRT(U55)</f>
-        <v>414.68501629324629</v>
+        <v>0.50440896059548634</v>
       </c>
       <c r="V56">
         <f t="shared" ref="V56" si="238">SQRT(V55)</f>
-        <v>506.54761207067872</v>
+        <v>0.75507109784673687</v>
       </c>
       <c r="W56">
         <f t="shared" ref="W56" si="239">SQRT(W55)</f>
-        <v>607.23156283945082</v>
+        <v>1.2288984216598666</v>
       </c>
       <c r="X56">
         <f t="shared" ref="X56" si="240">SQRT(X55)</f>
-        <v>721.48958290563871</v>
+        <v>1.5723055765076503</v>
       </c>
       <c r="Y56">
         <f t="shared" ref="Y56" si="241">SQRT(Y55)</f>
-        <v>845.33892803175877</v>
+        <v>1.779214007564768</v>
       </c>
       <c r="Z56">
         <f t="shared" ref="Z56" si="242">SQRT(Z55)</f>
-        <v>963.1378232436092</v>
+        <v>2.3366021213885491</v>
       </c>
       <c r="AA56">
         <f t="shared" ref="AA56" si="243">SQRT(AA55)</f>
-        <v>1104.6587381737243</v>
+        <v>0.91809677711240223</v>
       </c>
       <c r="AB56" s="43">
         <f t="shared" ref="AB56" si="244">SQRT(AB55)</f>
-        <v>1256.6205348498322</v>
+        <v>0.26862362538098505</v>
       </c>
       <c r="AC56" s="44">
         <f t="shared" ref="AC56" si="245">SQRT(AC55)</f>
-        <v>1429.72782729398</v>
+        <v>1.3554952597362648</v>
       </c>
       <c r="AD56" s="44">
         <f t="shared" ref="AD56" si="246">SQRT(AD55)</f>
-        <v>1568.9451129560948</v>
+        <v>2.8070044840684432</v>
       </c>
       <c r="AE56" s="44">
         <f t="shared" ref="AE56" si="247">SQRT(AE55)</f>
-        <v>1677.1294214766317</v>
+        <v>4.3224516028028246</v>
       </c>
       <c r="AF56" s="45">
         <f t="shared" ref="AF56" si="248">SQRT(AF55)</f>
-        <v>1888.7368458478452</v>
+        <v>6.7088762137668603</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18033,107 +18033,107 @@
       </c>
       <c r="F72">
         <f>G73-F73</f>
-        <v>2.1258961499737863</v>
+        <v>8.884003579792861E-5</v>
       </c>
       <c r="G72">
         <f t="shared" ref="G72" si="327">H73-G73</f>
-        <v>3.0683380132166</v>
+        <v>1.0999479110980741E-4</v>
       </c>
       <c r="H72">
         <f t="shared" ref="H72" si="328">I73-H73</f>
-        <v>4.4057930511737169</v>
+        <v>1.5315450249563274E-4</v>
       </c>
       <c r="I72">
         <f t="shared" ref="I72" si="329">J73-I73</f>
-        <v>6.1698719826129818</v>
+        <v>2.0611624040438488E-4</v>
       </c>
       <c r="J72">
         <f t="shared" ref="J72" si="330">K73-J73</f>
-        <v>8.8049099975777416</v>
+        <v>2.8204252887683006E-4</v>
       </c>
       <c r="K72">
         <f t="shared" ref="K72" si="331">L73-K73</f>
-        <v>10.892760898573254</v>
+        <v>5.0743153080080872E-4</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72" si="332">M73-L73</f>
-        <v>15.107742408165805</v>
+        <v>6.0585905909596883E-4</v>
       </c>
       <c r="M72">
         <f t="shared" ref="M72" si="333">N73-M73</f>
-        <v>19.579937239398959</v>
+        <v>6.9933972541144727E-4</v>
       </c>
       <c r="N72">
         <f t="shared" ref="N72" si="334">O73-N73</f>
-        <v>26.092256544702252</v>
+        <v>1.2674783653173474E-3</v>
       </c>
       <c r="O72">
         <f t="shared" ref="O72" si="335">P73-O73</f>
-        <v>32.355136333687753</v>
+        <v>1.4873200664582403E-3</v>
       </c>
       <c r="P72">
         <f t="shared" ref="P72" si="336">Q73-P73</f>
-        <v>39.728572622539531</v>
+        <v>2.125283255608049E-3</v>
       </c>
       <c r="Q72">
         <f t="shared" ref="Q72" si="337">R73-Q73</f>
-        <v>50.329108745936651</v>
+        <v>4.8523078615180272E-3</v>
       </c>
       <c r="R72">
         <f t="shared" ref="R72" si="338">S73-R73</f>
-        <v>53.762618180290303</v>
+        <v>1.0261903448350439E-2</v>
       </c>
       <c r="S72">
         <f t="shared" ref="S72" si="339">T73-S73</f>
-        <v>53.723981452839041</v>
+        <v>1.3182526952176997E-2</v>
       </c>
       <c r="T72">
         <f t="shared" ref="T72" si="340">U73-T73</f>
-        <v>88.016552996291637</v>
+        <v>2.7880467376274365E-2</v>
       </c>
       <c r="U72">
         <f t="shared" ref="U72" si="341">V73-U73</f>
-        <v>89.648540714488377</v>
+        <v>5.8045419351062902E-2</v>
       </c>
       <c r="V72">
         <f t="shared" ref="V72" si="342">W73-V73</f>
-        <v>98.494148461441114</v>
+        <v>0.1431301609633332</v>
       </c>
       <c r="W72">
         <f t="shared" ref="W72" si="343">X73-W73</f>
-        <v>112.73904534925236</v>
+        <v>0.27531630110232547</v>
       </c>
       <c r="X72">
         <f t="shared" ref="X72" si="344">Y73-X73</f>
-        <v>124.46495323320266</v>
+        <v>0.5648755798959203</v>
       </c>
       <c r="Y72">
         <f t="shared" ref="Y72" si="345">Z73-Y73</f>
-        <v>122.34270990565051</v>
+        <v>0.5837084195893063</v>
       </c>
       <c r="Z72">
         <f t="shared" ref="Z72" si="346">AA73-Z73</f>
-        <v>149.55674063584695</v>
+        <v>0.97916187692910261</v>
       </c>
       <c r="AA72">
         <f t="shared" ref="AA72" si="347">AB73-AA73</f>
-        <v>167.62150794257354</v>
+        <v>1.4653453161538015</v>
       </c>
       <c r="AB72" s="43">
         <f t="shared" ref="AB72" si="348">AC73-AB73</f>
-        <v>197.90882814580596</v>
+        <v>1.4751613826237522</v>
       </c>
       <c r="AC72" s="44">
         <f t="shared" ref="AC72" si="349">AD73-AC73</f>
-        <v>172.52888043225471</v>
+        <v>1.8346110977542001</v>
       </c>
       <c r="AD72" s="44">
         <f t="shared" ref="AD72" si="350">AE73-AD73</f>
-        <v>149.93168854893634</v>
+        <v>2.7227675198598877</v>
       </c>
       <c r="AE72" s="44">
         <f t="shared" ref="AE72" si="351">AF73-AE73</f>
-        <v>272.11666980485029</v>
+        <v>3.7636266820601669</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -18149,111 +18149,111 @@
       </c>
       <c r="F73">
         <f>$E$3+(E4*$C72)*(EXP(-EXP($A72-$B72*F71)))</f>
-        <v>3.6307739867343054</v>
+        <v>3.9839402634055934E-3</v>
       </c>
       <c r="G73">
         <f t="shared" ref="G73:AF73" si="352">$E$3+(F4*$C72)*(EXP(-EXP($A72-$B72*G71)))</f>
-        <v>5.7566701367080917</v>
+        <v>4.072780299203522E-3</v>
       </c>
       <c r="H73">
         <f t="shared" si="352"/>
-        <v>8.8250081499246917</v>
+        <v>4.1827750903133294E-3</v>
       </c>
       <c r="I73">
         <f t="shared" si="352"/>
-        <v>13.230801201098409</v>
+        <v>4.3359295928089622E-3</v>
       </c>
       <c r="J73">
         <f t="shared" si="352"/>
-        <v>19.40067318371139</v>
+        <v>4.542045833213347E-3</v>
       </c>
       <c r="K73">
         <f t="shared" si="352"/>
-        <v>28.205583181289132</v>
+        <v>4.8240883620901771E-3</v>
       </c>
       <c r="L73">
         <f t="shared" si="352"/>
-        <v>39.098344079862386</v>
+        <v>5.3315198928909858E-3</v>
       </c>
       <c r="M73">
         <f t="shared" si="352"/>
-        <v>54.206086488028191</v>
+        <v>5.9373789519869546E-3</v>
       </c>
       <c r="N73">
         <f t="shared" si="352"/>
-        <v>73.78602372742715</v>
+        <v>6.6367186773984019E-3</v>
       </c>
       <c r="O73">
         <f t="shared" si="352"/>
-        <v>99.878280272129402</v>
+        <v>7.9041970427157493E-3</v>
       </c>
       <c r="P73">
         <f t="shared" si="352"/>
-        <v>132.23341660581715</v>
+        <v>9.3915171091739896E-3</v>
       </c>
       <c r="Q73">
         <f t="shared" si="352"/>
-        <v>171.96198922835669</v>
+        <v>1.1516800364782039E-2</v>
       </c>
       <c r="R73">
         <f t="shared" si="352"/>
-        <v>222.29109797429334</v>
+        <v>1.6369108226300066E-2</v>
       </c>
       <c r="S73">
         <f t="shared" si="352"/>
-        <v>276.05371615458364</v>
+        <v>2.6631011674650505E-2</v>
       </c>
       <c r="T73">
         <f t="shared" si="352"/>
-        <v>329.77769760742268</v>
+        <v>3.9813538626827502E-2</v>
       </c>
       <c r="U73">
         <f t="shared" si="352"/>
-        <v>417.79425060371432</v>
+        <v>6.7694006003101867E-2</v>
       </c>
       <c r="V73">
         <f t="shared" si="352"/>
-        <v>507.44279131820269</v>
+        <v>0.12573942535416477</v>
       </c>
       <c r="W73">
         <f t="shared" si="352"/>
-        <v>605.93693977964381</v>
+        <v>0.26886958631749797</v>
       </c>
       <c r="X73">
         <f t="shared" si="352"/>
-        <v>718.67598512889617</v>
+        <v>0.54418588741982343</v>
       </c>
       <c r="Y73">
         <f t="shared" si="352"/>
-        <v>843.14093836209884</v>
+        <v>1.1090614673157437</v>
       </c>
       <c r="Z73">
         <f t="shared" si="352"/>
-        <v>965.48364826774934</v>
+        <v>1.69276988690505</v>
       </c>
       <c r="AA73">
         <f t="shared" si="352"/>
-        <v>1115.0403889035963</v>
+        <v>2.6719317638341527</v>
       </c>
       <c r="AB73" s="43">
         <f t="shared" si="352"/>
-        <v>1282.6618968461698</v>
+        <v>4.1372770799879541</v>
       </c>
       <c r="AC73" s="44">
         <f t="shared" si="352"/>
-        <v>1480.5707249919758</v>
+        <v>5.6124384626117063</v>
       </c>
       <c r="AD73" s="44">
         <f t="shared" si="352"/>
-        <v>1653.0996054242305</v>
+        <v>7.4470495603659064</v>
       </c>
       <c r="AE73" s="44">
         <f t="shared" si="352"/>
-        <v>1803.0312939731668</v>
+        <v>10.169817080225794</v>
       </c>
       <c r="AF73" s="45">
         <f t="shared" si="352"/>
-        <v>2075.1479637780171</v>
+        <v>13.933443762285961</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -18262,126 +18262,126 @@
       </c>
       <c r="B74" s="17">
         <f>AF73-$AF$3</f>
-        <v>2069.1343314547848</v>
+        <v>7.9198114390536372</v>
       </c>
       <c r="C74" s="18">
         <f>((AF73-AA73)-($AF$3-$AA$3))</f>
-        <v>957.66768093502685</v>
+        <v>8.8216180590578688</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="5">
         <f>SUM(F74:AA74)</f>
-        <v>4477753.4956913292</v>
+        <v>14.352581922341027</v>
       </c>
       <c r="F74" s="3">
         <f>(F73-F$3)^2</f>
-        <v>13.139749575154339</v>
+        <v>3.6511441685798332E-6</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" ref="G74" si="353">(G73-G$3)^2</f>
-        <v>33.059311917000251</v>
+        <v>8.2632544495703805E-6</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" ref="H74" si="354">(H73-H$3)^2</f>
-        <v>77.702512905913267</v>
+        <v>3.5075863040384789E-5</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" ref="I74" si="355">(I73-I$3)^2</f>
-        <v>174.70331192353632</v>
+        <v>7.9695405154742087E-5</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" ref="J74" si="356">(J73-J$3)^2</f>
-        <v>375.74923068127225</v>
+        <v>1.4111080251561623E-4</v>
       </c>
       <c r="K74" s="3">
         <f t="shared" ref="K74" si="357">(K73-K$3)^2</f>
-        <v>794.45083467459631</v>
+        <v>2.1770586429670355E-4</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" ref="L74" si="358">(L73-L$3)^2</f>
-        <v>1526.903080999457</v>
+        <v>3.0294524131649613E-4</v>
       </c>
       <c r="M74" s="3">
         <f t="shared" ref="M74" si="359">(M73-M$3)^2</f>
-        <v>2935.829675344617</v>
+        <v>2.8399309686383755E-4</v>
       </c>
       <c r="N74" s="3">
         <f t="shared" ref="N74" si="360">(N73-N$3)^2</f>
-        <v>5442.2726575284178</v>
+        <v>5.8162575135757734E-5</v>
       </c>
       <c r="O74" s="3">
         <f t="shared" ref="O74" si="361">(O73-O$3)^2</f>
-        <v>9972.2752975887815</v>
+        <v>8.2733631437740944E-5</v>
       </c>
       <c r="P74" s="3">
         <f t="shared" ref="P74" si="362">(P73-P$3)^2</f>
-        <v>17480.123104750161</v>
+        <v>1.3475687502660023E-4</v>
       </c>
       <c r="Q74" s="3">
         <f t="shared" ref="Q74" si="363">(Q73-Q$3)^2</f>
-        <v>29561.984391933584</v>
+        <v>2.0976307167357765E-4</v>
       </c>
       <c r="R74" s="3">
         <f t="shared" ref="R74" si="364">(R73-R$3)^2</f>
-        <v>49397.77308675868</v>
+        <v>3.4711012828332003E-4</v>
       </c>
       <c r="S74" s="3">
         <f t="shared" ref="S74" si="365">(S73-S$3)^2</f>
-        <v>76145.486373633743</v>
+        <v>6.7846502377415623E-3</v>
       </c>
       <c r="T74" s="3">
         <f t="shared" ref="T74" si="366">(T73-T$3)^2</f>
-        <v>108584.84210245092</v>
+        <v>4.6544617868475593E-2</v>
       </c>
       <c r="U74" s="3">
         <f t="shared" ref="U74" si="367">(U73-U$3)^2</f>
-        <v>174074.64408916159</v>
+        <v>0.25403731512327887</v>
       </c>
       <c r="V74" s="3">
         <f t="shared" ref="V74" si="368">(V73-V$3)^2</f>
-        <v>256605.04388476</v>
+        <v>0.57012714905878203</v>
       </c>
       <c r="W74" s="3">
         <f t="shared" ref="W74" si="369">(W73-W$3)^2</f>
-        <v>365345.23525592795</v>
+        <v>1.5131959836492461</v>
       </c>
       <c r="X74" s="3">
         <f t="shared" ref="X74" si="370">(X73-X$3)^2</f>
-        <v>513452.19175410137</v>
+        <v>2.4838236669197955</v>
       </c>
       <c r="Y74" s="3">
         <f t="shared" ref="Y74" si="371">(Y73-Y$3)^2</f>
-        <v>706013.31841240032</v>
+        <v>3.1894032629588538</v>
       </c>
       <c r="Z74" s="3">
         <f t="shared" ref="Z74" si="372">(Z73-Z$3)^2</f>
-        <v>924388.65235470259</v>
+        <v>5.4735051296880357</v>
       </c>
       <c r="AA74" s="3">
         <f t="shared" ref="AA74" si="373">(AA73-AA$3)^2</f>
-        <v>1235358.1152176096</v>
+        <v>0.81325517988345575</v>
       </c>
       <c r="AB74" s="46">
         <f t="shared" ref="AB74" si="374">(AB73-AB$3)^2</f>
-        <v>1635495.5018923292</v>
+        <v>0.11580911493673485</v>
       </c>
       <c r="AC74" s="47">
         <f t="shared" ref="AC74" si="375">(AC73-AC$3)^2</f>
-        <v>2180025.45754928</v>
+        <v>2.348986849559493</v>
       </c>
       <c r="AD74" s="47">
         <f t="shared" ref="AD74" si="376">(AD73-AD$3)^2</f>
-        <v>2718604.7555210511</v>
+        <v>10.027637451831898</v>
       </c>
       <c r="AE74" s="47">
         <f t="shared" ref="AE74" si="377">(AE73-AE$3)^2</f>
-        <v>3232317.3634019322</v>
+        <v>25.031918357312257</v>
       </c>
       <c r="AF74" s="48">
         <f t="shared" ref="AF74" si="378">(AF73-AF$3)^2</f>
-        <v>4281316.8816048391</v>
+        <v>62.723413230164844</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18390,126 +18390,126 @@
       </c>
       <c r="B75" s="20">
         <f>(B74/$AF$3)*100</f>
-        <v>34407.396731940971</v>
+        <v>131.69763320010796</v>
       </c>
       <c r="C75" s="21">
         <f>((C74)/($AF$3-$AA$3))*100</f>
-        <v>39250.381562606271</v>
+        <v>361.55743971597076</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="5">
         <f>SUM(F75:AA75)</f>
-        <v>6635.6828235336288</v>
+        <v>9.532555434502461</v>
       </c>
       <c r="F75">
         <f>SQRT(F74)</f>
-        <v>3.6248792497343052</v>
+        <v>1.9107967365944063E-3</v>
       </c>
       <c r="G75">
         <f t="shared" ref="G75" si="379">SQRT(G74)</f>
-        <v>5.7497227687080921</v>
+        <v>2.8745877007964778E-3</v>
       </c>
       <c r="H75">
         <f t="shared" ref="H75" si="380">SQRT(H74)</f>
-        <v>8.8149028869246919</v>
+        <v>5.9224879096866703E-3</v>
       </c>
       <c r="I75">
         <f t="shared" ref="I75" si="381">SQRT(I74)</f>
-        <v>13.217538043203671</v>
+        <v>8.9272283019278774E-3</v>
       </c>
       <c r="J75">
         <f t="shared" ref="J75" si="382">SQRT(J74)</f>
-        <v>19.384252131079812</v>
+        <v>1.1879006798365604E-2</v>
       </c>
       <c r="K75">
         <f t="shared" ref="K75" si="383">SQRT(K74)</f>
-        <v>28.186004233920713</v>
+        <v>1.4754859006330882E-2</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75" si="384">SQRT(L74)</f>
-        <v>39.075607237757126</v>
+        <v>1.7405322212372173E-2</v>
       </c>
       <c r="M75">
         <f t="shared" ref="M75" si="385">SQRT(M74)</f>
-        <v>54.183297014343978</v>
+        <v>1.6852094732223575E-2</v>
       </c>
       <c r="N75">
         <f t="shared" ref="N75" si="386">SQRT(N74)</f>
-        <v>73.771760569532418</v>
+        <v>7.6264392173384385E-3</v>
       </c>
       <c r="O75">
         <f t="shared" ref="O75" si="387">SQRT(O74)</f>
-        <v>99.861280272129406</v>
+        <v>9.0958029572842519E-3</v>
       </c>
       <c r="P75">
         <f t="shared" ref="P75" si="388">SQRT(P74)</f>
-        <v>132.21241660581717</v>
+        <v>1.1608482890826012E-2</v>
       </c>
       <c r="Q75">
         <f t="shared" ref="Q75" si="389">SQRT(Q74)</f>
-        <v>171.93598922835668</v>
+        <v>1.448319963521796E-2</v>
       </c>
       <c r="R75">
         <f t="shared" ref="R75" si="390">SQRT(R74)</f>
-        <v>222.25609797429334</v>
+        <v>1.8630891773699938E-2</v>
       </c>
       <c r="S75">
         <f t="shared" ref="S75" si="391">SQRT(S74)</f>
-        <v>275.94471615458366</v>
+        <v>8.2368988325349501E-2</v>
       </c>
       <c r="T75">
         <f t="shared" ref="T75" si="392">SQRT(T74)</f>
-        <v>329.52214205186715</v>
+        <v>0.21574201692872808</v>
       </c>
       <c r="U75">
         <f t="shared" ref="U75" si="393">SQRT(U74)</f>
-        <v>417.22253545219917</v>
+        <v>0.5040211455120498</v>
       </c>
       <c r="V75">
         <f t="shared" ref="V75" si="394">SQRT(V74)</f>
-        <v>506.56198424749562</v>
+        <v>0.75506764535290616</v>
       </c>
       <c r="W75">
         <f t="shared" ref="W75" si="395">SQRT(W74)</f>
-        <v>604.43794988065395</v>
+        <v>1.2301203126724012</v>
       </c>
       <c r="X75">
         <f t="shared" ref="X75" si="396">SQRT(X74)</f>
-        <v>716.55578411879515</v>
+        <v>1.5760151226811865</v>
       </c>
       <c r="Y75">
         <f t="shared" ref="Y75" si="397">SQRT(Y74)</f>
-        <v>840.24598684694729</v>
+        <v>1.7858900478357713</v>
       </c>
       <c r="Z75">
         <f t="shared" ref="Z75" si="398">SQRT(Z74)</f>
-        <v>961.45132604552714</v>
+        <v>2.3395523353171725</v>
       </c>
       <c r="AA75">
         <f t="shared" ref="AA75" si="399">SQRT(AA74)</f>
-        <v>1111.4666505197579</v>
+        <v>0.90180662000423117</v>
       </c>
       <c r="AB75" s="43">
         <f t="shared" ref="AB75" si="400">SQRT(AB74)</f>
-        <v>1278.8649271492002</v>
+        <v>0.34030738301825725</v>
       </c>
       <c r="AC75" s="44">
         <f t="shared" ref="AC75" si="401">SQRT(AC74)</f>
-        <v>1476.4909270121777</v>
+        <v>1.5326404828137266</v>
       </c>
       <c r="AD75" s="44">
         <f t="shared" ref="AD75" si="402">SQRT(AD74)</f>
-        <v>1648.8192003737254</v>
+        <v>3.1666445098608555</v>
       </c>
       <c r="AE75" s="44">
         <f t="shared" ref="AE75" si="403">SQRT(AE74)</f>
-        <v>1797.8646677105405</v>
+        <v>5.0031908175995303</v>
       </c>
       <c r="AF75" s="45">
         <f t="shared" ref="AF75" si="404">SQRT(AF74)</f>
-        <v>2069.1343314547848</v>
+        <v>7.9198114390536372</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18630,107 +18630,107 @@
       </c>
       <c r="F82">
         <f>G83-F83</f>
-        <v>2.0953072327983966</v>
+        <v>8.746224702286913E-5</v>
       </c>
       <c r="G82">
         <f t="shared" ref="G82" si="405">H83-G83</f>
-        <v>3.043276329398747</v>
+        <v>1.0929757928794786E-4</v>
       </c>
       <c r="H82">
         <f t="shared" ref="H82" si="406">I83-H83</f>
-        <v>4.3881534514993739</v>
+        <v>1.5276342187586518E-4</v>
       </c>
       <c r="I82">
         <f t="shared" ref="I82" si="407">J83-I83</f>
-        <v>6.1632393167336907</v>
+        <v>2.0615902859590259E-4</v>
       </c>
       <c r="J82">
         <f t="shared" ref="J82" si="408">K83-J83</f>
-        <v>8.8090656843884787</v>
+        <v>2.8248136081887761E-4</v>
       </c>
       <c r="K82">
         <f t="shared" ref="K82" si="409">L83-K83</f>
-        <v>10.918034162412958</v>
+        <v>5.0764607813757849E-4</v>
       </c>
       <c r="L82">
         <f t="shared" ref="L82" si="410">M83-L83</f>
-        <v>15.143232303746359</v>
+        <v>6.0711753438231954E-4</v>
       </c>
       <c r="M82">
         <f t="shared" ref="M82" si="411">N83-M83</f>
-        <v>19.62752815761381</v>
+        <v>7.0127298594081355E-4</v>
       </c>
       <c r="N82">
         <f t="shared" ref="N82" si="412">O83-N83</f>
-        <v>26.146538501287992</v>
+        <v>1.2693508393729382E-3</v>
       </c>
       <c r="O82">
         <f t="shared" ref="O82" si="413">P83-O83</f>
-        <v>32.411887037432152</v>
+        <v>1.4896166887563636E-3</v>
       </c>
       <c r="P82">
         <f t="shared" ref="P82" si="414">Q83-P83</f>
-        <v>39.779507222381568</v>
+        <v>2.1275328101680833E-3</v>
       </c>
       <c r="Q82">
         <f t="shared" ref="Q82" si="415">R83-Q83</f>
-        <v>50.36725827432889</v>
+        <v>4.8549505216640663E-3</v>
       </c>
       <c r="R82">
         <f t="shared" ref="R82" si="416">S83-R83</f>
-        <v>53.778822572547853</v>
+        <v>1.0265341744239022E-2</v>
       </c>
       <c r="S82">
         <f t="shared" ref="S82" si="417">T83-S83</f>
-        <v>53.714696395637532</v>
+        <v>1.3184070755726689E-2</v>
       </c>
       <c r="T82">
         <f t="shared" ref="T82" si="418">U83-T83</f>
-        <v>87.991433495326532</v>
+        <v>2.7880439125652155E-2</v>
       </c>
       <c r="U82">
         <f t="shared" ref="U82" si="419">V83-U83</f>
-        <v>89.604131459954772</v>
+        <v>5.8040167523459529E-2</v>
       </c>
       <c r="V82">
         <f t="shared" ref="V82" si="420">W83-V83</f>
-        <v>98.444572139634715</v>
+        <v>0.14311194097238616</v>
       </c>
       <c r="W82">
         <f t="shared" ref="W82" si="421">X83-W83</f>
-        <v>112.70136490374171</v>
+        <v>0.27527790504041622</v>
       </c>
       <c r="X82">
         <f t="shared" ref="X82" si="422">Y83-X83</f>
-        <v>124.46144207286591</v>
+        <v>0.56483202353580031</v>
       </c>
       <c r="Y82">
         <f t="shared" ref="Y82" si="423">Z83-Y83</f>
-        <v>122.40011759047889</v>
+        <v>0.58377674805311797</v>
       </c>
       <c r="Z82">
         <f t="shared" ref="Z82" si="424">AA83-Z83</f>
-        <v>149.70231544791284</v>
+        <v>0.97950005056286193</v>
       </c>
       <c r="AA82">
         <f t="shared" ref="AA82" si="425">AB83-AA83</f>
-        <v>167.88959378834829</v>
+        <v>1.4663169224135641</v>
       </c>
       <c r="AB82" s="43">
         <f t="shared" ref="AB82" si="426">AC83-AB83</f>
-        <v>198.34199542906731</v>
+        <v>1.477027311361816</v>
       </c>
       <c r="AC82" s="44">
         <f t="shared" ref="AC82" si="427">AD83-AC83</f>
-        <v>173.12627321409991</v>
+        <v>1.8378946415613173</v>
       </c>
       <c r="AD82" s="44">
         <f t="shared" ref="AD82" si="428">AE83-AD83</f>
-        <v>150.68785981060228</v>
+        <v>2.7286532844498366</v>
       </c>
       <c r="AE82" s="44">
         <f t="shared" ref="AE82" si="429">AF83-AE83</f>
-        <v>273.24413957996967</v>
+        <v>3.7735418773452221</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
@@ -18746,111 +18746,111 @@
       </c>
       <c r="F83">
         <f>$E$3+($C82/($C82+E5))*E4*(EXP(-EXP($A82-$B82*F81)))</f>
-        <v>3.4782489440269204</v>
+        <v>3.9779755995205893E-3</v>
       </c>
       <c r="G83">
         <f>$E$3+($C82/($C82+F5))*F4*(EXP(-EXP($A82-$B82*G81)))</f>
-        <v>5.573556176825317</v>
+        <v>4.0654378465434585E-3</v>
       </c>
       <c r="H83">
         <f>$E$3+($C82/($C82+G5))*G4*(EXP(-EXP($A82-$B82*H81)))</f>
-        <v>8.616832506224064</v>
+        <v>4.1747354258314063E-3</v>
       </c>
       <c r="I83">
         <f t="shared" ref="I83:AF83" si="430">$E$3+($C82/($C82+H5))*H4*(EXP(-EXP($A82-$B82*I81)))</f>
-        <v>13.004985957723438</v>
+        <v>4.3274988477072715E-3</v>
       </c>
       <c r="J83">
         <f t="shared" si="430"/>
-        <v>19.168225274457129</v>
+        <v>4.5336578763031741E-3</v>
       </c>
       <c r="K83">
         <f t="shared" si="430"/>
-        <v>27.977290958845607</v>
+        <v>4.8161392371220517E-3</v>
       </c>
       <c r="L83">
         <f t="shared" si="430"/>
-        <v>38.895325121258566</v>
+        <v>5.3237853152596302E-3</v>
       </c>
       <c r="M83">
         <f t="shared" si="430"/>
-        <v>54.038557425004925</v>
+        <v>5.9309028496419497E-3</v>
       </c>
       <c r="N83">
         <f t="shared" si="430"/>
-        <v>73.666085582618734</v>
+        <v>6.6321758355827633E-3</v>
       </c>
       <c r="O83">
         <f t="shared" si="430"/>
-        <v>99.812624083906726</v>
+        <v>7.9015266749557014E-3</v>
       </c>
       <c r="P83">
         <f t="shared" si="430"/>
-        <v>132.22451112133888</v>
+        <v>9.391143363712065E-3</v>
       </c>
       <c r="Q83">
         <f t="shared" si="430"/>
-        <v>172.00401834372045</v>
+        <v>1.1518676173880148E-2</v>
       </c>
       <c r="R83">
         <f t="shared" si="430"/>
-        <v>222.37127661804934</v>
+        <v>1.6373626695544215E-2</v>
       </c>
       <c r="S83">
         <f t="shared" si="430"/>
-        <v>276.15009919059719</v>
+        <v>2.6638968439783237E-2</v>
       </c>
       <c r="T83">
         <f t="shared" si="430"/>
-        <v>329.86479558623472</v>
+        <v>3.9823039195509925E-2</v>
       </c>
       <c r="U83">
         <f t="shared" si="430"/>
-        <v>417.85622908156125</v>
+        <v>6.7703478321162081E-2</v>
       </c>
       <c r="V83">
         <f t="shared" si="430"/>
-        <v>507.46036054151602</v>
+        <v>0.12574364584462161</v>
       </c>
       <c r="W83">
         <f t="shared" si="430"/>
-        <v>605.90493268115074</v>
+        <v>0.26885558681700777</v>
       </c>
       <c r="X83">
         <f t="shared" si="430"/>
-        <v>718.60629758489245</v>
+        <v>0.54413349185742399</v>
       </c>
       <c r="Y83">
         <f t="shared" si="430"/>
-        <v>843.06773965775835</v>
+        <v>1.1089655153932243</v>
       </c>
       <c r="Z83">
         <f t="shared" si="430"/>
-        <v>965.46785724823724</v>
+        <v>1.6927422634463423</v>
       </c>
       <c r="AA83">
         <f t="shared" si="430"/>
-        <v>1115.1701726961501</v>
+        <v>2.6722423140092042</v>
       </c>
       <c r="AB83" s="43">
         <f t="shared" si="430"/>
-        <v>1283.0597664844984</v>
+        <v>4.1385592364227684</v>
       </c>
       <c r="AC83" s="44">
         <f t="shared" si="430"/>
-        <v>1481.4017619135657</v>
+        <v>5.6155865477845843</v>
       </c>
       <c r="AD83" s="44">
         <f t="shared" si="430"/>
-        <v>1654.5280351276656</v>
+        <v>7.4534811893459016</v>
       </c>
       <c r="AE83" s="44">
         <f t="shared" si="430"/>
-        <v>1805.2158949382679</v>
+        <v>10.182134473795738</v>
       </c>
       <c r="AF83" s="45">
         <f t="shared" si="430"/>
-        <v>2078.4600345182375</v>
+        <v>13.95567635114096</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
@@ -18859,126 +18859,126 @@
       </c>
       <c r="B84" s="17">
         <f>AF83-$AF$3</f>
-        <v>2072.4464021950052</v>
+        <v>7.9420440279086364</v>
       </c>
       <c r="C84" s="28">
         <f>((AF83-AA83)-($AF$3-$AA$3))</f>
-        <v>960.84996788269348</v>
+        <v>8.8435400977378151</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="5">
         <f>SUM(F84:AA84)</f>
-        <v>4477878.7502384502</v>
+        <v>14.35267329066852</v>
       </c>
       <c r="F84" s="3">
         <f>(F83-F$3)^2</f>
-        <v>12.057243739057553</v>
+        <v>3.6739742663677905E-6</v>
       </c>
       <c r="G84" s="3">
         <f t="shared" ref="G84" si="431">(G83-G$3)^2</f>
-        <v>30.98713363049162</v>
+        <v>8.3055214094020429E-6</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" ref="H84" si="432">(H83-H$3)^2</f>
-        <v>74.075753839255299</v>
+        <v>3.5171157307974019E-5</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" ref="I84" si="433">(I83-I$3)^2</f>
-        <v>168.7848613075889</v>
+        <v>7.9846002604761371E-5</v>
       </c>
       <c r="J84" s="3">
         <f t="shared" ref="J84" si="434">(J83-J$3)^2</f>
-        <v>366.79160495113496</v>
+        <v>1.4131015406775805E-4</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" ref="K84" si="435">(K83-K$3)^2</f>
-        <v>781.63366091669582</v>
+        <v>2.1794050392154812E-4</v>
       </c>
       <c r="L84" s="3">
         <f t="shared" ref="L84" si="436">(L83-L$3)^2</f>
-        <v>1511.0781195205668</v>
+        <v>3.0321454677188807E-4</v>
       </c>
       <c r="M84" s="3">
         <f t="shared" ref="M84" si="437">(M83-M$3)^2</f>
-        <v>2917.7031873709257</v>
+        <v>2.8421141058416636E-4</v>
       </c>
       <c r="N84" s="3">
         <f t="shared" ref="N84" si="438">(N83-N$3)^2</f>
-        <v>5424.5909464830775</v>
+        <v>5.8231887187131403E-5</v>
       </c>
       <c r="O84" s="3">
         <f t="shared" ref="O84" si="439">(O83-O$3)^2</f>
-        <v>9959.1665862964255</v>
+        <v>8.278221684654267E-5</v>
       </c>
       <c r="P84" s="3">
         <f t="shared" ref="P84" si="440">(P83-P$3)^2</f>
-        <v>17477.768352809977</v>
+        <v>1.3476555240188646E-4</v>
       </c>
       <c r="Q84" s="3">
         <f t="shared" ref="Q84" si="441">(Q83-Q$3)^2</f>
-        <v>29576.438793433044</v>
+        <v>2.0970873975694647E-4</v>
       </c>
       <c r="R84" s="3">
         <f t="shared" ref="R84" si="442">(R83-R$3)^2</f>
-        <v>49433.419900377754</v>
+        <v>3.4694178247694324E-4</v>
       </c>
       <c r="S84" s="3">
         <f t="shared" ref="S84" si="443">(S83-S$3)^2</f>
-        <v>76198.68844235313</v>
+        <v>6.783339519663022E-3</v>
       </c>
       <c r="T84" s="3">
         <f t="shared" ref="T84" si="444">(T83-T$3)^2</f>
-        <v>108642.25111360189</v>
+        <v>4.6540518615037371E-2</v>
       </c>
       <c r="U84" s="3">
         <f t="shared" ref="U84" si="445">(U83-U$3)^2</f>
-        <v>174126.36556583483</v>
+        <v>0.2540277667158049</v>
       </c>
       <c r="V84" s="3">
         <f t="shared" ref="V84" si="446">(V83-V$3)^2</f>
-        <v>256622.84399468417</v>
+        <v>0.57012077556501162</v>
       </c>
       <c r="W84" s="3">
         <f t="shared" ref="W84" si="447">(W83-W$3)^2</f>
-        <v>365306.54367039271</v>
+        <v>1.5132304259850726</v>
       </c>
       <c r="X84" s="3">
         <f t="shared" ref="X84" si="448">(X83-X$3)^2</f>
-        <v>513352.32658498135</v>
+        <v>2.4839888220624959</v>
       </c>
       <c r="Y84" s="3">
         <f t="shared" ref="Y84" si="449">(Y83-Y$3)^2</f>
-        <v>705890.31393532164</v>
+        <v>3.1897459913326212</v>
       </c>
       <c r="Z84" s="3">
         <f t="shared" ref="Z84" si="450">(Z83-Z$3)^2</f>
-        <v>924358.28801075974</v>
+        <v>5.4736343835057513</v>
       </c>
       <c r="AA84" s="3">
         <f t="shared" ref="AA84" si="451">(AA83-AA$3)^2</f>
-        <v>1235646.6327758455</v>
+        <v>0.81269516391745711</v>
       </c>
       <c r="AB84" s="46">
         <f t="shared" ref="AB84" si="452">(AB83-AB$3)^2</f>
-        <v>1636513.3032446499</v>
+        <v>0.11668341346376147</v>
       </c>
       <c r="AC84" s="47">
         <f t="shared" ref="AC84" si="453">(AC83-AC$3)^2</f>
-        <v>2182480.1851211241</v>
+        <v>2.3586465255583455</v>
       </c>
       <c r="AD84" s="47">
         <f t="shared" ref="AD84" si="454">(AD83-AD$3)^2</f>
-        <v>2723317.2405752847</v>
+        <v>10.068412182881163</v>
       </c>
       <c r="AE84" s="47">
         <f t="shared" ref="AE84" si="455">(AE83-AE$3)^2</f>
-        <v>3240177.3696597121</v>
+        <v>25.155322616308421</v>
       </c>
       <c r="AF84" s="48">
         <f t="shared" ref="AF84" si="456">(AF83-AF$3)^2</f>
-        <v>4295034.0899710217</v>
+        <v>63.076063341239234</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18987,126 +18987,126 @@
       </c>
       <c r="B85" s="20">
         <f>(B84/$AF$3)*100</f>
-        <v>34462.472775207287</v>
+        <v>132.06733636219036</v>
       </c>
       <c r="C85" s="29">
         <f>((C84)/($AF$3-$AA$3))*100</f>
-        <v>39380.808828164263</v>
+        <v>362.45592297895189</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="5">
         <f>SUM(F85:AA85)</f>
-        <v>6634.2117415744378</v>
+        <v>9.5324652225938706</v>
       </c>
       <c r="F85">
         <f>SQRT(F84)</f>
-        <v>3.4723542070269202</v>
+        <v>1.9167614004794104E-3</v>
       </c>
       <c r="G85">
         <f t="shared" ref="G85" si="457">SQRT(G84)</f>
-        <v>5.5666088088253174</v>
+        <v>2.8819301534565413E-3</v>
       </c>
       <c r="H85">
         <f t="shared" ref="H85" si="458">SQRT(H84)</f>
-        <v>8.6067272432240642</v>
+        <v>5.9305275741685934E-3</v>
       </c>
       <c r="I85">
         <f t="shared" ref="I85" si="459">SQRT(I84)</f>
-        <v>12.9917227998287</v>
+        <v>8.9356590470295681E-3</v>
       </c>
       <c r="J85">
         <f t="shared" ref="J85" si="460">SQRT(J84)</f>
-        <v>19.15180422182555</v>
+        <v>1.1887394755275777E-2</v>
       </c>
       <c r="K85">
         <f t="shared" ref="K85" si="461">SQRT(K84)</f>
-        <v>27.957712011477188</v>
+        <v>1.4762808131299009E-2</v>
       </c>
       <c r="L85">
         <f t="shared" ref="L85" si="462">SQRT(L84)</f>
-        <v>38.872588279153305</v>
+        <v>1.7413056790003531E-2</v>
       </c>
       <c r="M85">
         <f t="shared" ref="M85" si="463">SQRT(M84)</f>
-        <v>54.015767951320711</v>
+        <v>1.6858570834568581E-2</v>
       </c>
       <c r="N85">
         <f t="shared" ref="N85" si="464">SQRT(N84)</f>
-        <v>73.651822424724003</v>
+        <v>7.6309820591540772E-3</v>
       </c>
       <c r="O85">
         <f t="shared" ref="O85" si="465">SQRT(O84)</f>
-        <v>99.795624083906731</v>
+        <v>9.0984733250442998E-3</v>
       </c>
       <c r="P85">
         <f t="shared" ref="P85" si="466">SQRT(P84)</f>
-        <v>132.20351112133889</v>
+        <v>1.1608856636287936E-2</v>
       </c>
       <c r="Q85">
         <f t="shared" ref="Q85" si="467">SQRT(Q84)</f>
-        <v>171.97801834372044</v>
+        <v>1.448132382611985E-2</v>
       </c>
       <c r="R85">
         <f t="shared" ref="R85" si="468">SQRT(R84)</f>
-        <v>222.33627661804934</v>
+        <v>1.8626373304455789E-2</v>
       </c>
       <c r="S85">
         <f t="shared" ref="S85" si="469">SQRT(S84)</f>
-        <v>276.04109919059721</v>
+        <v>8.2361031560216763E-2</v>
       </c>
       <c r="T85">
         <f t="shared" ref="T85" si="470">SQRT(T84)</f>
-        <v>329.60924003067919</v>
+        <v>0.21573251636004567</v>
       </c>
       <c r="U85">
         <f t="shared" ref="U85" si="471">SQRT(U84)</f>
-        <v>417.2845139300461</v>
+        <v>0.50401167319398954</v>
       </c>
       <c r="V85">
         <f t="shared" ref="V85" si="472">SQRT(V84)</f>
-        <v>506.57955347080895</v>
+        <v>0.75506342486244926</v>
       </c>
       <c r="W85">
         <f t="shared" ref="W85" si="473">SQRT(W84)</f>
-        <v>604.40594278216088</v>
+        <v>1.2301343121728914</v>
       </c>
       <c r="X85">
         <f t="shared" ref="X85" si="474">SQRT(X84)</f>
-        <v>716.48609657479142</v>
+        <v>1.5760675182435859</v>
       </c>
       <c r="Y85">
         <f t="shared" ref="Y85" si="475">SQRT(Y84)</f>
-        <v>840.17278814260681</v>
+        <v>1.7859859997582908</v>
       </c>
       <c r="Z85">
         <f t="shared" ref="Z85" si="476">SQRT(Z84)</f>
-        <v>961.43553502601503</v>
+        <v>2.3395799587758805</v>
       </c>
       <c r="AA85">
         <f t="shared" ref="AA85" si="477">SQRT(AA84)</f>
-        <v>1111.5964343123117</v>
+        <v>0.90149606982917962</v>
       </c>
       <c r="AB85" s="43">
         <f t="shared" ref="AB85" si="478">SQRT(AB84)</f>
-        <v>1279.2627967875287</v>
+        <v>0.34158953945307147</v>
       </c>
       <c r="AC85" s="44">
         <f t="shared" ref="AC85" si="479">SQRT(AC84)</f>
-        <v>1477.3219639337676</v>
+        <v>1.5357885679866046</v>
       </c>
       <c r="AD85" s="44">
         <f t="shared" ref="AD85" si="480">SQRT(AD84)</f>
-        <v>1650.2476300771605</v>
+        <v>3.1730761388408508</v>
       </c>
       <c r="AE85" s="44">
         <f t="shared" ref="AE85" si="481">SQRT(AE84)</f>
-        <v>1800.0492686756415</v>
+        <v>5.0155082111694744</v>
       </c>
       <c r="AF85" s="45">
         <f t="shared" ref="AF85" si="482">SQRT(AF84)</f>
-        <v>2072.4464021950052</v>
+        <v>7.9420440279086364</v>
       </c>
     </row>
   </sheetData>
@@ -19137,115 +19137,115 @@
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="61">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>0.52331367847850285</v>
       </c>
       <c r="B2" s="61">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>0.55323595442710227</v>
       </c>
       <c r="C2" s="61">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0.5456430955342495</v>
       </c>
       <c r="D2" s="61">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>0.54176460922418679</v>
       </c>
       <c r="E2" s="61">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>0.53860522751136797</v>
       </c>
       <c r="F2" s="61">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>0.54193370675483377</v>
       </c>
       <c r="G2" s="61">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>0.60193000286135767</v>
       </c>
       <c r="H2" s="61">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>0.63233443976379211</v>
       </c>
       <c r="I2" s="61">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>0.64144379203756041</v>
       </c>
       <c r="J2" s="61">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>0.7213955956735002</v>
       </c>
       <c r="K2" s="61">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>0.77490063361437367</v>
       </c>
       <c r="L2" s="61">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>0.8554321290788035</v>
       </c>
       <c r="M2" s="61">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>1.13041049862401</v>
       </c>
       <c r="N2" s="61">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>1.687062563699731</v>
       </c>
       <c r="O2" s="61">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>2.2119603942444148</v>
       </c>
       <c r="P2" s="61">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>3.299591976527668</v>
       </c>
       <c r="Q2" s="61">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>5.3516192794852833</v>
       </c>
       <c r="R2" s="61">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>9.9868208262476745</v>
       </c>
       <c r="S2" s="61">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>17.644685379587791</v>
       </c>
       <c r="T2" s="61">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>31.557362626262631</v>
       </c>
       <c r="U2" s="61">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>42.523411641575898</v>
       </c>
       <c r="V2" s="61">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>59.704800353535347</v>
       </c>
       <c r="W2" s="61">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>82.817820252525266</v>
       </c>
       <c r="X2" s="61">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>101.3167605050505</v>
       </c>
       <c r="Y2" s="61">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>122.0178553535354</v>
       </c>
       <c r="Z2" s="61">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>152.1574391919192</v>
       </c>
       <c r="AA2" s="61">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>191.44436454545459</v>
       </c>
       <c r="AB2" s="61">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>231.45889994425389</v>
       </c>
       <c r="AC2" s="60">
         <f t="shared" ref="AC2" si="0">E8</f>
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B8">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>0.52331367847850285</v>
       </c>
       <c r="C8">
         <f>A8*$A$5+$B$5</f>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="B9">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>0.55323595442710227</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C35" si="1">A9*$A$5+$B$5</f>
@@ -19712,7 +19712,7 @@
       </c>
       <c r="B10">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0.5456430955342495</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="B11">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>0.54176460922418679</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -19772,7 +19772,7 @@
       </c>
       <c r="B12">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>0.53860522751136797</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -19802,7 +19802,7 @@
       </c>
       <c r="B13">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>0.54193370675483377</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -19826,7 +19826,7 @@
       </c>
       <c r="B14">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>0.60193000286135767</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="B15">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>0.63233443976379211</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="B16">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>0.64144379203756041</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="B17">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>0.7213955956735002</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="B18">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>0.77490063361437367</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -20009,7 +20009,7 @@
       </c>
       <c r="B19">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>0.8554321290788035</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -20033,7 +20033,7 @@
       </c>
       <c r="B20">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>1.13041049862401</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -20082,7 +20082,7 @@
       </c>
       <c r="B21">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>1.687062563699731</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="B22">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>2.2119603942444148</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -20184,7 +20184,7 @@
       </c>
       <c r="B23">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>3.299591976527668</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -20208,7 +20208,7 @@
       </c>
       <c r="B24">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>5.3516192794852833</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -20232,7 +20232,7 @@
       </c>
       <c r="B25">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>9.9868208262476745</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="B26">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>17.644685379587791</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -20280,7 +20280,7 @@
       </c>
       <c r="B27">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>31.557362626262631</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -20304,7 +20304,7 @@
       </c>
       <c r="B28">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>42.523411641575898</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="B29">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>59.704800353535347</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="B30">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>82.817820252525266</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -20372,7 +20372,7 @@
       </c>
       <c r="B31">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>101.3167605050505</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B32">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>122.0178553535354</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -20412,7 +20412,7 @@
       </c>
       <c r="B33">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>152.1574391919192</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="B34">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>191.44436454545459</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -20452,7 +20452,7 @@
       </c>
       <c r="B35">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>231.45889994425389</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
